--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="413">
   <si>
     <t>提交id</t>
   </si>
@@ -668,590 +668,657 @@
     <t>${li.executedate}</t>
   </si>
   <si>
+    <t>${li.endtime}</t>
+  </si>
+  <si>
+    <t>${li.personname}</t>
+  </si>
+  <si>
+    <t>${li.cashiername}</t>
+  </si>
+  <si>
+    <t>${li.populationqty}</t>
+  </si>
+  <si>
+    <t>${li.consumeqty}</t>
+  </si>
+  <si>
+    <t>${li.commodity}</t>
+  </si>
+  <si>
+    <t>${li.url}</t>
+  </si>
+  <si>
+    <t>${li.topic1One}</t>
+  </si>
+  <si>
+    <t>${li.th1mark}</t>
+  </si>
+  <si>
+    <t>${li.topic1Two}</t>
+  </si>
+  <si>
+    <t>${li.topic1Three}</t>
+  </si>
+  <si>
+    <t>${li.th1sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic1Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic2One}</t>
+  </si>
+  <si>
+    <t>${li.th2mark}</t>
+  </si>
+  <si>
+    <t>${li.topic2Two}</t>
+  </si>
+  <si>
+    <t>${li.topic2Three}</t>
+  </si>
+  <si>
+    <t>${li.th2sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic2Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic3One}</t>
+  </si>
+  <si>
+    <t>${li.th3mark}</t>
+  </si>
+  <si>
+    <t>${li.topic4One}</t>
+  </si>
+  <si>
+    <t>${li.th4mark}</t>
+  </si>
+  <si>
+    <t>${li.topic4Three}</t>
+  </si>
+  <si>
+    <t>${li.topic5One}</t>
+  </si>
+  <si>
+    <t>${li.th5mark}</t>
+  </si>
+  <si>
+    <t>${li.topic5Two}</t>
+  </si>
+  <si>
+    <t>${li.topic6One}</t>
+  </si>
+  <si>
+    <t>${li.th6mark}</t>
+  </si>
+  <si>
+    <t>${li.topic6Two}</t>
+  </si>
+  <si>
+    <t>${li.topic7One}</t>
+  </si>
+  <si>
+    <t>${li.th7mark}</t>
+  </si>
+  <si>
+    <t>${li.topic7Two}</t>
+  </si>
+  <si>
+    <t>${li.topic8One}</t>
+  </si>
+  <si>
+    <t>${li.th8mark}</t>
+  </si>
+  <si>
+    <t>${li.topic8Two}</t>
+  </si>
+  <si>
+    <t>${li.topic9One}</t>
+  </si>
+  <si>
+    <t>${li.topic9Two}</t>
+  </si>
+  <si>
+    <t>${li.th9mark}</t>
+  </si>
+  <si>
+    <t>${li.topic9Three}</t>
+  </si>
+  <si>
+    <t>${li.topic10One}</t>
+  </si>
+  <si>
+    <t>${li.th10mark}</t>
+  </si>
+  <si>
+    <t>${li.topic10Two}</t>
+  </si>
+  <si>
+    <t>${li.topic10Three}</t>
+  </si>
+  <si>
+    <t>${li.th10sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic10Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic11One}</t>
+  </si>
+  <si>
+    <t>${li.th11mark}</t>
+  </si>
+  <si>
+    <t>${li.topic11Two}</t>
+  </si>
+  <si>
+    <t>${li.topic12One}</t>
+  </si>
+  <si>
+    <t>${li.th12mark}</t>
+  </si>
+  <si>
+    <t>${li.topic12Two}</t>
+  </si>
+  <si>
+    <t>${li.topic13One}</t>
+  </si>
+  <si>
+    <t>${li.th13mark}</t>
+  </si>
+  <si>
+    <t>${li.topic14One}</t>
+  </si>
+  <si>
+    <t>${li.th14mark}</t>
+  </si>
+  <si>
+    <t>${li.topic14Two}</t>
+  </si>
+  <si>
+    <t>${li.topic14Three}</t>
+  </si>
+  <si>
+    <t>${li.th14sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic14Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic15One}</t>
+  </si>
+  <si>
+    <t>${li.th15mark}</t>
+  </si>
+  <si>
+    <t>${li.topic15Two}</t>
+  </si>
+  <si>
+    <t>${li.topic15Three}</t>
+  </si>
+  <si>
+    <t>${li.th15sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic15Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic16One}</t>
+  </si>
+  <si>
+    <t>${li.th16mark}</t>
+  </si>
+  <si>
+    <t>${li.topic16Two}</t>
+  </si>
+  <si>
+    <t>${li.topic16Three}</t>
+  </si>
+  <si>
+    <t>${li.th16sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic16Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic17One}</t>
+  </si>
+  <si>
+    <t>${li.th17mark}</t>
+  </si>
+  <si>
+    <t>${li.topic17Two}</t>
+  </si>
+  <si>
+    <t>${li.th17sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic17Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic18One}</t>
+  </si>
+  <si>
+    <t>${li.th18mark}</t>
+  </si>
+  <si>
+    <t>${li.topic18Two}</t>
+  </si>
+  <si>
+    <t>${li.topic19One}</t>
+  </si>
+  <si>
+    <t>${li.th19mark}</t>
+  </si>
+  <si>
+    <t>${li.topic19Two}</t>
+  </si>
+  <si>
+    <t>${li.topic19Three}</t>
+  </si>
+  <si>
+    <t>${li.th19sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic19Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic20One}</t>
+  </si>
+  <si>
+    <t>${li.th20mark}</t>
+  </si>
+  <si>
+    <t>${li.topic20Two}</t>
+  </si>
+  <si>
+    <t>${li.topic20Three}</t>
+  </si>
+  <si>
+    <t>${li.th20sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic20Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic21One}</t>
+  </si>
+  <si>
+    <t>${li.th21mark}</t>
+  </si>
+  <si>
+    <t>${li.topic21Two}</t>
+  </si>
+  <si>
+    <t>${li.topic21Three}</t>
+  </si>
+  <si>
+    <t>${li.th21sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic21Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic22One}</t>
+  </si>
+  <si>
+    <t>${li.th22mark}</t>
+  </si>
+  <si>
+    <t>${li.topic22Two}</t>
+  </si>
+  <si>
+    <t>${li.topic22Three}</t>
+  </si>
+  <si>
+    <t>${li.th22sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic22Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic23One}</t>
+  </si>
+  <si>
+    <t>${li.th23mark}</t>
+  </si>
+  <si>
+    <t>${li.topic23Two}</t>
+  </si>
+  <si>
+    <t>${li.topic24One}</t>
+  </si>
+  <si>
+    <t>${li.th24mark}</t>
+  </si>
+  <si>
+    <t>${li.topic24Two}</t>
+  </si>
+  <si>
+    <t>${li.topic25One}</t>
+  </si>
+  <si>
+    <t>${li.th25mark}</t>
+  </si>
+  <si>
+    <t>${li.topic25Two}</t>
+  </si>
+  <si>
+    <t>${li.topic26One}</t>
+  </si>
+  <si>
+    <t>${li.th26mark}</t>
+  </si>
+  <si>
+    <t>${li.topic26Two}</t>
+  </si>
+  <si>
+    <t>${li.topic27One}</t>
+  </si>
+  <si>
+    <t>${li.th27mark}</t>
+  </si>
+  <si>
+    <t>${li.topic27Two}</t>
+  </si>
+  <si>
+    <t>${li.topic27Three}</t>
+  </si>
+  <si>
+    <t>${li.th27sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic27Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic28One}</t>
+  </si>
+  <si>
+    <t>${li.th28mark}</t>
+  </si>
+  <si>
+    <t>${li.topic28Two}</t>
+  </si>
+  <si>
+    <t>${li.topic29One}</t>
+  </si>
+  <si>
+    <t>${li.th29mark}</t>
+  </si>
+  <si>
+    <t>${li.topic29Two}</t>
+  </si>
+  <si>
+    <t>${li.topic29Three}</t>
+  </si>
+  <si>
+    <t>${li.th29sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic29Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic30One}</t>
+  </si>
+  <si>
+    <t>${li.th30mark}</t>
+  </si>
+  <si>
+    <t>${li.topic30Two}</t>
+  </si>
+  <si>
+    <t>${li.topic30Three}</t>
+  </si>
+  <si>
+    <t>${li.th30sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic30Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic31One}</t>
+  </si>
+  <si>
+    <t>${li.th31mark}</t>
+  </si>
+  <si>
+    <t>${li.topic31Two}</t>
+  </si>
+  <si>
+    <t>${li.topic31Three}</t>
+  </si>
+  <si>
+    <t>${li.th31sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic31Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic32One}</t>
+  </si>
+  <si>
+    <t>${li.th32mark}</t>
+  </si>
+  <si>
+    <t>${li.topic32Two}</t>
+  </si>
+  <si>
+    <t>${li.topic33One}</t>
+  </si>
+  <si>
+    <t>${li.th33mark}</t>
+  </si>
+  <si>
+    <t>${li.topic33Two}</t>
+  </si>
+  <si>
+    <t>${li.topic33Three}</t>
+  </si>
+  <si>
+    <t>${li.th33sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic33Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic34One}</t>
+  </si>
+  <si>
+    <t>${li.th34mark}</t>
+  </si>
+  <si>
+    <t>${li.topic34Two}</t>
+  </si>
+  <si>
+    <t>${li.topic34Three}</t>
+  </si>
+  <si>
+    <t>${li.th34sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic34Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic35One}</t>
+  </si>
+  <si>
+    <t>${li.th35mark}</t>
+  </si>
+  <si>
+    <t>${li.topic35Two}</t>
+  </si>
+  <si>
+    <t>${li.topic35Three}</t>
+  </si>
+  <si>
+    <t>${li.th35sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic35Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic36One}</t>
+  </si>
+  <si>
+    <t>${li.th36mark}</t>
+  </si>
+  <si>
+    <t>${li.topic36Two}</t>
+  </si>
+  <si>
+    <t>${li.topic36Three}</t>
+  </si>
+  <si>
+    <t>${li.th36sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic36Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic37One}</t>
+  </si>
+  <si>
+    <t>${li.th37mark}</t>
+  </si>
+  <si>
+    <t>${li.topic37Two}</t>
+  </si>
+  <si>
+    <t>${li.topic37Three}</t>
+  </si>
+  <si>
+    <t>${li.th37sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic37Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic38One}</t>
+  </si>
+  <si>
+    <t>${li.th38mark}</t>
+  </si>
+  <si>
+    <t>${li.topic38Two}</t>
+  </si>
+  <si>
+    <t>${li.topic39One}</t>
+  </si>
+  <si>
+    <t>${li.th39mark}</t>
+  </si>
+  <si>
+    <t>${li.topic39Two}</t>
+  </si>
+  <si>
+    <t>${li.topic40One}</t>
+  </si>
+  <si>
+    <t>${li.th40mark}</t>
+  </si>
+  <si>
+    <t>${li.topic40Two}</t>
+  </si>
+  <si>
+    <t>${li.topic40Three}</t>
+  </si>
+  <si>
+    <t>${li.th40sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic40Fraction}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否地铁店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频链接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频时长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.money}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${li.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daqu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.weather}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.metro}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.payment}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.vedio}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.duration}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${li.starttime}</t>
-  </si>
-  <si>
-    <t>${li.endtime}</t>
-  </si>
-  <si>
-    <t>${li.personname}</t>
-  </si>
-  <si>
-    <t>${li.cashiername}</t>
-  </si>
-  <si>
-    <t>${li.populationqty}</t>
-  </si>
-  <si>
-    <t>${li.consumeqty}</t>
-  </si>
-  <si>
-    <t>${li.commodity}</t>
-  </si>
-  <si>
-    <t>${li.money}</t>
-  </si>
-  <si>
-    <t>${li.url}</t>
-  </si>
-  <si>
-    <t>${li.topic1One}</t>
-  </si>
-  <si>
-    <t>${li.th1mark}</t>
-  </si>
-  <si>
-    <t>${li.topic1Two}</t>
-  </si>
-  <si>
-    <t>${li.topic1Three}</t>
-  </si>
-  <si>
-    <t>${li.th1sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic1Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic2One}</t>
-  </si>
-  <si>
-    <t>${li.th2mark}</t>
-  </si>
-  <si>
-    <t>${li.topic2Two}</t>
-  </si>
-  <si>
-    <t>${li.topic2Three}</t>
-  </si>
-  <si>
-    <t>${li.th2sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic2Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic3One}</t>
-  </si>
-  <si>
-    <t>${li.th3mark}</t>
-  </si>
-  <si>
-    <t>${li.topic4One}</t>
-  </si>
-  <si>
-    <t>${li.th4mark}</t>
-  </si>
-  <si>
-    <t>${li.topic4Three}</t>
-  </si>
-  <si>
-    <t>${li.topic5One}</t>
-  </si>
-  <si>
-    <t>${li.th5mark}</t>
-  </si>
-  <si>
-    <t>${li.topic5Two}</t>
-  </si>
-  <si>
-    <t>${li.topic6One}</t>
-  </si>
-  <si>
-    <t>${li.th6mark}</t>
-  </si>
-  <si>
-    <t>${li.topic6Two}</t>
-  </si>
-  <si>
-    <t>${li.topic7One}</t>
-  </si>
-  <si>
-    <t>${li.th7mark}</t>
-  </si>
-  <si>
-    <t>${li.topic7Two}</t>
-  </si>
-  <si>
-    <t>${li.topic8One}</t>
-  </si>
-  <si>
-    <t>${li.th8mark}</t>
-  </si>
-  <si>
-    <t>${li.topic8Two}</t>
-  </si>
-  <si>
-    <t>${li.topic9One}</t>
-  </si>
-  <si>
-    <t>${li.topic9Two}</t>
-  </si>
-  <si>
-    <t>${li.th9mark}</t>
-  </si>
-  <si>
-    <t>${li.topic9Three}</t>
-  </si>
-  <si>
-    <t>${li.topic10One}</t>
-  </si>
-  <si>
-    <t>${li.th10mark}</t>
-  </si>
-  <si>
-    <t>${li.topic10Two}</t>
-  </si>
-  <si>
-    <t>${li.topic10Three}</t>
-  </si>
-  <si>
-    <t>${li.th10sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic10Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic11One}</t>
-  </si>
-  <si>
-    <t>${li.th11mark}</t>
-  </si>
-  <si>
-    <t>${li.topic11Two}</t>
-  </si>
-  <si>
-    <t>${li.topic12One}</t>
-  </si>
-  <si>
-    <t>${li.th12mark}</t>
-  </si>
-  <si>
-    <t>${li.topic12Two}</t>
-  </si>
-  <si>
-    <t>${li.topic13One}</t>
-  </si>
-  <si>
-    <t>${li.th13mark}</t>
-  </si>
-  <si>
-    <t>${li.topic14One}</t>
-  </si>
-  <si>
-    <t>${li.th14mark}</t>
-  </si>
-  <si>
-    <t>${li.topic14Two}</t>
-  </si>
-  <si>
-    <t>${li.topic14Three}</t>
-  </si>
-  <si>
-    <t>${li.th14sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic14Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic15One}</t>
-  </si>
-  <si>
-    <t>${li.th15mark}</t>
-  </si>
-  <si>
-    <t>${li.topic15Two}</t>
-  </si>
-  <si>
-    <t>${li.topic15Three}</t>
-  </si>
-  <si>
-    <t>${li.th15sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic15Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic16One}</t>
-  </si>
-  <si>
-    <t>${li.th16mark}</t>
-  </si>
-  <si>
-    <t>${li.topic16Two}</t>
-  </si>
-  <si>
-    <t>${li.topic16Three}</t>
-  </si>
-  <si>
-    <t>${li.th16sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic16Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic17One}</t>
-  </si>
-  <si>
-    <t>${li.th17mark}</t>
-  </si>
-  <si>
-    <t>${li.topic17Two}</t>
-  </si>
-  <si>
-    <t>${li.th17sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic17Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic18One}</t>
-  </si>
-  <si>
-    <t>${li.th18mark}</t>
-  </si>
-  <si>
-    <t>${li.topic18Two}</t>
-  </si>
-  <si>
-    <t>${li.topic19One}</t>
-  </si>
-  <si>
-    <t>${li.th19mark}</t>
-  </si>
-  <si>
-    <t>${li.topic19Two}</t>
-  </si>
-  <si>
-    <t>${li.topic19Three}</t>
-  </si>
-  <si>
-    <t>${li.th19sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic19Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic20One}</t>
-  </si>
-  <si>
-    <t>${li.th20mark}</t>
-  </si>
-  <si>
-    <t>${li.topic20Two}</t>
-  </si>
-  <si>
-    <t>${li.topic20Three}</t>
-  </si>
-  <si>
-    <t>${li.th20sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic20Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic21One}</t>
-  </si>
-  <si>
-    <t>${li.th21mark}</t>
-  </si>
-  <si>
-    <t>${li.topic21Two}</t>
-  </si>
-  <si>
-    <t>${li.topic21Three}</t>
-  </si>
-  <si>
-    <t>${li.th21sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic21Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic22One}</t>
-  </si>
-  <si>
-    <t>${li.th22mark}</t>
-  </si>
-  <si>
-    <t>${li.topic22Two}</t>
-  </si>
-  <si>
-    <t>${li.topic22Three}</t>
-  </si>
-  <si>
-    <t>${li.th22sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic22Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic23One}</t>
-  </si>
-  <si>
-    <t>${li.th23mark}</t>
-  </si>
-  <si>
-    <t>${li.topic23Two}</t>
-  </si>
-  <si>
-    <t>${li.topic24One}</t>
-  </si>
-  <si>
-    <t>${li.th24mark}</t>
-  </si>
-  <si>
-    <t>${li.topic24Two}</t>
-  </si>
-  <si>
-    <t>${li.topic25One}</t>
-  </si>
-  <si>
-    <t>${li.th25mark}</t>
-  </si>
-  <si>
-    <t>${li.topic25Two}</t>
-  </si>
-  <si>
-    <t>${li.topic26One}</t>
-  </si>
-  <si>
-    <t>${li.th26mark}</t>
-  </si>
-  <si>
-    <t>${li.topic26Two}</t>
-  </si>
-  <si>
-    <t>${li.topic27One}</t>
-  </si>
-  <si>
-    <t>${li.th27mark}</t>
-  </si>
-  <si>
-    <t>${li.topic27Two}</t>
-  </si>
-  <si>
-    <t>${li.topic27Three}</t>
-  </si>
-  <si>
-    <t>${li.th27sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic27Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic28One}</t>
-  </si>
-  <si>
-    <t>${li.th28mark}</t>
-  </si>
-  <si>
-    <t>${li.topic28Two}</t>
-  </si>
-  <si>
-    <t>${li.topic29One}</t>
-  </si>
-  <si>
-    <t>${li.th29mark}</t>
-  </si>
-  <si>
-    <t>${li.topic29Two}</t>
-  </si>
-  <si>
-    <t>${li.topic29Three}</t>
-  </si>
-  <si>
-    <t>${li.th29sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic29Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic30One}</t>
-  </si>
-  <si>
-    <t>${li.th30mark}</t>
-  </si>
-  <si>
-    <t>${li.topic30Two}</t>
-  </si>
-  <si>
-    <t>${li.topic30Three}</t>
-  </si>
-  <si>
-    <t>${li.th30sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic30Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic31One}</t>
-  </si>
-  <si>
-    <t>${li.th31mark}</t>
-  </si>
-  <si>
-    <t>${li.topic31Two}</t>
-  </si>
-  <si>
-    <t>${li.topic31Three}</t>
-  </si>
-  <si>
-    <t>${li.th31sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic31Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic32One}</t>
-  </si>
-  <si>
-    <t>${li.th32mark}</t>
-  </si>
-  <si>
-    <t>${li.topic32Two}</t>
-  </si>
-  <si>
-    <t>${li.topic33One}</t>
-  </si>
-  <si>
-    <t>${li.th33mark}</t>
-  </si>
-  <si>
-    <t>${li.topic33Two}</t>
-  </si>
-  <si>
-    <t>${li.topic33Three}</t>
-  </si>
-  <si>
-    <t>${li.th33sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic33Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic34One}</t>
-  </si>
-  <si>
-    <t>${li.th34mark}</t>
-  </si>
-  <si>
-    <t>${li.topic34Two}</t>
-  </si>
-  <si>
-    <t>${li.topic34Three}</t>
-  </si>
-  <si>
-    <t>${li.th34sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic34Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic35One}</t>
-  </si>
-  <si>
-    <t>${li.th35mark}</t>
-  </si>
-  <si>
-    <t>${li.topic35Two}</t>
-  </si>
-  <si>
-    <t>${li.topic35Three}</t>
-  </si>
-  <si>
-    <t>${li.th35sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic35Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic36One}</t>
-  </si>
-  <si>
-    <t>${li.th36mark}</t>
-  </si>
-  <si>
-    <t>${li.topic36Two}</t>
-  </si>
-  <si>
-    <t>${li.topic36Three}</t>
-  </si>
-  <si>
-    <t>${li.th36sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic36Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic37One}</t>
-  </si>
-  <si>
-    <t>${li.th37mark}</t>
-  </si>
-  <si>
-    <t>${li.topic37Two}</t>
-  </si>
-  <si>
-    <t>${li.topic37Three}</t>
-  </si>
-  <si>
-    <t>${li.th37sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic37Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic38One}</t>
-  </si>
-  <si>
-    <t>${li.th38mark}</t>
-  </si>
-  <si>
-    <t>${li.topic38Two}</t>
-  </si>
-  <si>
-    <t>${li.topic39One}</t>
-  </si>
-  <si>
-    <t>${li.th39mark}</t>
-  </si>
-  <si>
-    <t>${li.topic39Two}</t>
-  </si>
-  <si>
-    <t>${li.topic40One}</t>
-  </si>
-  <si>
-    <t>${li.th40mark}</t>
-  </si>
-  <si>
-    <t>${li.topic40Two}</t>
-  </si>
-  <si>
-    <t>${li.topic40Three}</t>
-  </si>
-  <si>
-    <t>${li.th40sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic40Fraction}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +1330,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1271,6 +1339,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1278,6 +1347,7 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1285,160 +1355,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,194 +1386,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1674,256 +1423,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1949,59 +1456,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2290,55 +1753,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:GT4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:GZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GE1" workbookViewId="0">
-      <selection activeCell="GM12" sqref="GM12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="12.1296296296296" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
-    <col min="75" max="76" width="18.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="13.1111111111111" customWidth="1"/>
-    <col min="100" max="100" width="15.3333333333333" customWidth="1"/>
-    <col min="101" max="102" width="14.3333333333333" customWidth="1"/>
-    <col min="107" max="107" width="15.3333333333333" customWidth="1"/>
-    <col min="113" max="113" width="14" customWidth="1"/>
-    <col min="119" max="119" width="17.6666666666667" customWidth="1"/>
-    <col min="120" max="120" width="13.5555555555556" customWidth="1"/>
-    <col min="121" max="121" width="11.5555555555556" customWidth="1"/>
-    <col min="122" max="122" width="13" customWidth="1"/>
-    <col min="123" max="123" width="13.5555555555556" customWidth="1"/>
-    <col min="124" max="124" width="13" customWidth="1"/>
-    <col min="134" max="134" width="13.3333333333333" customWidth="1"/>
-    <col min="135" max="135" width="13.4444444444444" customWidth="1"/>
-    <col min="137" max="137" width="19.6666666666667" customWidth="1"/>
-    <col min="138" max="138" width="15.1111111111111" customWidth="1"/>
-    <col min="146" max="146" width="20.8888888888889" customWidth="1"/>
-    <col min="152" max="152" width="14.6666666666667" customWidth="1"/>
-    <col min="157" max="157" width="13.8888888888889" customWidth="1"/>
-    <col min="158" max="158" width="19.1111111111111" customWidth="1"/>
-    <col min="167" max="167" width="22.2222222222222" customWidth="1"/>
-    <col min="173" max="173" width="23.8888888888889" customWidth="1"/>
-    <col min="178" max="178" width="16.8888888888889" customWidth="1"/>
-    <col min="179" max="179" width="19.7777777777778" customWidth="1"/>
-    <col min="184" max="184" width="14.4444444444444" customWidth="1"/>
-    <col min="185" max="185" width="21" customWidth="1"/>
-    <col min="191" max="191" width="24" customWidth="1"/>
-    <col min="194" max="194" width="20" customWidth="1"/>
-    <col min="197" max="197" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="25" max="25" width="13.75" customWidth="1"/>
+    <col min="81" max="82" width="18.625" customWidth="1"/>
+    <col min="86" max="86" width="13.125" customWidth="1"/>
+    <col min="106" max="106" width="15.375" customWidth="1"/>
+    <col min="107" max="108" width="14.375" customWidth="1"/>
+    <col min="113" max="113" width="15.375" customWidth="1"/>
+    <col min="119" max="119" width="14" customWidth="1"/>
+    <col min="125" max="125" width="17.625" customWidth="1"/>
+    <col min="126" max="126" width="13.5" customWidth="1"/>
+    <col min="127" max="127" width="11.5" customWidth="1"/>
+    <col min="128" max="128" width="13" customWidth="1"/>
+    <col min="129" max="129" width="13.5" customWidth="1"/>
+    <col min="130" max="130" width="13" customWidth="1"/>
+    <col min="140" max="140" width="13.375" customWidth="1"/>
+    <col min="141" max="141" width="13.5" customWidth="1"/>
+    <col min="143" max="143" width="19.625" customWidth="1"/>
+    <col min="144" max="144" width="15.125" customWidth="1"/>
+    <col min="152" max="152" width="20.875" customWidth="1"/>
+    <col min="158" max="158" width="14.625" customWidth="1"/>
+    <col min="163" max="163" width="13.875" customWidth="1"/>
+    <col min="164" max="164" width="19.125" customWidth="1"/>
+    <col min="173" max="173" width="22.25" customWidth="1"/>
+    <col min="179" max="179" width="23.875" customWidth="1"/>
+    <col min="184" max="184" width="16.875" customWidth="1"/>
+    <col min="185" max="185" width="19.75" customWidth="1"/>
+    <col min="190" max="190" width="14.5" customWidth="1"/>
+    <col min="191" max="191" width="21" customWidth="1"/>
+    <col min="197" max="197" width="24" customWidth="1"/>
+    <col min="200" max="200" width="20" customWidth="1"/>
+    <col min="203" max="203" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:202">
+    <row r="1" spans="1:208" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2358,600 +1821,618 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="X1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BY1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="CC1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CM1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CU1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CX1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="DA1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="DB1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="DD1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="DE1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DG1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="6" t="s">
+      <c r="DH1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="8" t="s">
+      <c r="DI1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DK1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DL1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DM1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="6" t="s">
+      <c r="DN1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DO1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DP1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="DR1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DS1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="6" t="s">
+      <c r="DT1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="DU1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="DV1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="7" t="s">
+      <c r="DW1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DX1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="DY1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="7" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="7" t="s">
+      <c r="EA1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="7" t="s">
+      <c r="EB1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="7" t="s">
+      <c r="EC1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="7" t="s">
+      <c r="ED1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="EE1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="7" t="s">
+      <c r="EF1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="5" t="s">
+      <c r="EG1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EH1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="EI1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="EJ1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EK1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="6" t="s">
+      <c r="EL1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="5" t="s">
+      <c r="EM1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="7" t="s">
+      <c r="EN1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="5" t="s">
+      <c r="EO1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="5" t="s">
+      <c r="EP1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="5" t="s">
+      <c r="ER1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="5" t="s">
+      <c r="ES1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="5" t="s">
+      <c r="ET1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="6" t="s">
+      <c r="EU1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="5" t="s">
+      <c r="EV1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="EW1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="5" t="s">
+      <c r="EX1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="5" t="s">
+      <c r="EY1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="5" t="s">
+      <c r="EZ1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="6" t="s">
+      <c r="FA1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="5" t="s">
+      <c r="FB1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="7" t="s">
+      <c r="FC1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="5" t="s">
+      <c r="FD1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="5" t="s">
+      <c r="FE1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="5" t="s">
+      <c r="FF1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="6" t="s">
+      <c r="FG1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="5" t="s">
+      <c r="FH1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="7" t="s">
+      <c r="FI1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="5" t="s">
+      <c r="FJ1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="5" t="s">
+      <c r="FK1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="7" t="s">
+      <c r="FL1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="5" t="s">
+      <c r="FM1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="5" t="s">
+      <c r="FN1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="5" t="s">
+      <c r="FO1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="6" t="s">
+      <c r="FP1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="5" t="s">
+      <c r="FQ1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="7" t="s">
+      <c r="FR1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="5" t="s">
+      <c r="FS1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="5" t="s">
+      <c r="FT1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="5" t="s">
+      <c r="FU1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="6" t="s">
+      <c r="FV1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="5" t="s">
+      <c r="FW1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="7" t="s">
+      <c r="FX1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="5" t="s">
+      <c r="FY1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="5" t="s">
+      <c r="FZ1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="5" t="s">
+      <c r="GA1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="6" t="s">
+      <c r="GB1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="5" t="s">
+      <c r="GC1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="7" t="s">
+      <c r="GD1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="5" t="s">
+      <c r="GE1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="5" t="s">
+      <c r="GF1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="5" t="s">
+      <c r="GG1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="6" t="s">
+      <c r="GH1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="5" t="s">
+      <c r="GI1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="5" t="s">
+      <c r="GK1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="5" t="s">
+      <c r="GL1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="5" t="s">
+      <c r="GM1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="6" t="s">
+      <c r="GN1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" s="5" t="s">
+      <c r="GO1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="GP1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" s="5" t="s">
+      <c r="GQ1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="GL1" s="5" t="s">
+      <c r="GR1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="GS1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="GN1" s="5" t="s">
+      <c r="GT1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="GO1" s="5" t="s">
+      <c r="GU1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="GP1" s="7" t="s">
+      <c r="GV1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="GQ1" s="5" t="s">
+      <c r="GW1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="GR1" s="5" t="s">
+      <c r="GX1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="GS1" s="5" t="s">
+      <c r="GY1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" s="6" t="s">
+      <c r="GZ1" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:208">
       <c r="A2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="2:202">
+    <row r="3" spans="1:208" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>202</v>
       </c>
@@ -2967,664 +2448,681 @@
       <c r="F3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="X3" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BP3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DS3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DT3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DU3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DV3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DW3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DX3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="DZ3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="DX3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="DY3" s="1" t="s">
+      <c r="EG3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="EK3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="EO3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="EI3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="ES3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="ET3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="EU3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="EV3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="EW3" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="EX3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="EY3" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="EZ3" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="FA3" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="FB3" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="FC3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="FD3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="FE3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="FF3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="FG3" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="FH3" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FI3" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="FB3" s="1" t="s">
+      <c r="FJ3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="FC3" s="1" t="s">
+      <c r="FK3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="FD3" s="1" t="s">
+      <c r="FL3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="FE3" s="1" t="s">
+      <c r="FM3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="FF3" s="1" t="s">
+      <c r="FN3" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="FG3" s="1" t="s">
+      <c r="FO3" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="FH3" s="1" t="s">
+      <c r="FP3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="FI3" s="1" t="s">
+      <c r="FQ3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="FJ3" s="1" t="s">
+      <c r="FR3" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="FK3" s="1" t="s">
+      <c r="FS3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="FL3" s="1" t="s">
+      <c r="FT3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="FM3" s="1" t="s">
+      <c r="FU3" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="FN3" s="1" t="s">
+      <c r="FV3" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="FO3" s="1" t="s">
+      <c r="FW3" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="FP3" s="1" t="s">
+      <c r="FX3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="FQ3" s="1" t="s">
+      <c r="FY3" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="FR3" s="1" t="s">
+      <c r="FZ3" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="FS3" s="1" t="s">
+      <c r="GA3" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="FT3" s="1" t="s">
+      <c r="GB3" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="FU3" s="1" t="s">
+      <c r="GC3" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="FV3" s="1" t="s">
+      <c r="GD3" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="FW3" s="1" t="s">
+      <c r="GE3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="FX3" s="1" t="s">
+      <c r="GF3" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="FY3" s="1" t="s">
+      <c r="GG3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="FZ3" s="1" t="s">
+      <c r="GH3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="GA3" s="1" t="s">
+      <c r="GI3" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="GB3" s="1" t="s">
+      <c r="GJ3" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="GC3" s="1" t="s">
+      <c r="GK3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="GD3" s="1" t="s">
+      <c r="GL3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="GE3" s="1" t="s">
+      <c r="GM3" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="GF3" s="1" t="s">
+      <c r="GN3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="GG3" s="1" t="s">
+      <c r="GO3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="GH3" s="1" t="s">
+      <c r="GP3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="GI3" s="1" t="s">
+      <c r="GQ3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="GJ3" s="1" t="s">
+      <c r="GR3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="GK3" s="1" t="s">
+      <c r="GS3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="GL3" s="1" t="s">
+      <c r="GT3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="GM3" s="1" t="s">
+      <c r="GU3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="GN3" s="1" t="s">
+      <c r="GV3" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="GO3" s="1" t="s">
+      <c r="GW3" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="GP3" s="1" t="s">
+      <c r="GX3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="GQ3" s="1" t="s">
+      <c r="GY3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="GR3" s="1" t="s">
+      <c r="GZ3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="GS3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:208">
+      <c r="A4" t="s">
         <v>398</v>
-      </c>
-      <c r="GT3" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F9:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="20.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="18.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="28.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="23.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="14.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="21.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="416">
   <si>
     <t>提交id</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>视频时长</t>
+  </si>
+  <si>
+    <t>总分</t>
   </si>
   <si>
     <t>我承诺本次执行及接下来的问卷填写均真实有效，公平公正</t>
@@ -760,6 +763,9 @@
     <t>${li.duration}</t>
   </si>
   <si>
+    <t>${li.score}</t>
+  </si>
+  <si>
     <t>${li.topic1One}</t>
   </si>
   <si>
@@ -1315,8 +1321,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1351,7 +1357,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1365,11 +1443,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1389,103 +1491,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1514,7 +1520,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,19 +1646,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,91 +1682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,49 +1700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,27 +1767,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,6 +1799,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1818,169 +1839,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2360,49 +2366,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:GZ4"/>
+  <dimension ref="A1:HA4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="19.8796296296296" customWidth="1"/>
     <col min="14" max="14" width="12.1296296296296" customWidth="1"/>
-    <col min="25" max="25" width="13.75" customWidth="1"/>
-    <col min="81" max="82" width="18.6296296296296" customWidth="1"/>
-    <col min="86" max="86" width="13.1296296296296" customWidth="1"/>
-    <col min="106" max="106" width="15.3796296296296" customWidth="1"/>
-    <col min="107" max="108" width="14.3796296296296" customWidth="1"/>
-    <col min="113" max="113" width="15.3796296296296" customWidth="1"/>
-    <col min="119" max="119" width="14" customWidth="1"/>
-    <col min="125" max="125" width="17.6296296296296" customWidth="1"/>
-    <col min="126" max="126" width="13.5" customWidth="1"/>
-    <col min="127" max="127" width="11.5" customWidth="1"/>
-    <col min="128" max="128" width="13" customWidth="1"/>
-    <col min="129" max="129" width="13.5" customWidth="1"/>
-    <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="140" max="140" width="13.3796296296296" customWidth="1"/>
-    <col min="141" max="141" width="13.5" customWidth="1"/>
-    <col min="143" max="143" width="19.6296296296296" customWidth="1"/>
-    <col min="144" max="144" width="15.1296296296296" customWidth="1"/>
-    <col min="152" max="152" width="20.8796296296296" customWidth="1"/>
-    <col min="158" max="158" width="14.6296296296296" customWidth="1"/>
-    <col min="163" max="163" width="13.8796296296296" customWidth="1"/>
-    <col min="164" max="164" width="19.1296296296296" customWidth="1"/>
-    <col min="173" max="173" width="22.25" customWidth="1"/>
-    <col min="179" max="179" width="23.8796296296296" customWidth="1"/>
-    <col min="184" max="184" width="16.8796296296296" customWidth="1"/>
-    <col min="185" max="185" width="19.75" customWidth="1"/>
-    <col min="190" max="190" width="14.5" customWidth="1"/>
-    <col min="191" max="191" width="21" customWidth="1"/>
-    <col min="197" max="197" width="24" customWidth="1"/>
-    <col min="200" max="200" width="20" customWidth="1"/>
-    <col min="203" max="203" width="25" customWidth="1"/>
+    <col min="26" max="26" width="13.75" customWidth="1"/>
+    <col min="82" max="83" width="18.6296296296296" customWidth="1"/>
+    <col min="87" max="87" width="13.1296296296296" customWidth="1"/>
+    <col min="107" max="107" width="15.3796296296296" customWidth="1"/>
+    <col min="108" max="109" width="14.3796296296296" customWidth="1"/>
+    <col min="114" max="114" width="15.3796296296296" customWidth="1"/>
+    <col min="120" max="120" width="14" customWidth="1"/>
+    <col min="126" max="126" width="17.6296296296296" customWidth="1"/>
+    <col min="127" max="127" width="13.5" customWidth="1"/>
+    <col min="128" max="128" width="11.5" customWidth="1"/>
+    <col min="129" max="129" width="13" customWidth="1"/>
+    <col min="130" max="130" width="13.5" customWidth="1"/>
+    <col min="131" max="131" width="13" customWidth="1"/>
+    <col min="141" max="141" width="13.3796296296296" customWidth="1"/>
+    <col min="142" max="142" width="13.5" customWidth="1"/>
+    <col min="144" max="144" width="19.6296296296296" customWidth="1"/>
+    <col min="145" max="145" width="15.1296296296296" customWidth="1"/>
+    <col min="153" max="153" width="20.8796296296296" customWidth="1"/>
+    <col min="159" max="159" width="14.6296296296296" customWidth="1"/>
+    <col min="164" max="164" width="13.8796296296296" customWidth="1"/>
+    <col min="165" max="165" width="19.1296296296296" customWidth="1"/>
+    <col min="174" max="174" width="22.25" customWidth="1"/>
+    <col min="180" max="180" width="23.8796296296296" customWidth="1"/>
+    <col min="185" max="185" width="16.8796296296296" customWidth="1"/>
+    <col min="186" max="186" width="19.75" customWidth="1"/>
+    <col min="191" max="191" width="14.5" customWidth="1"/>
+    <col min="192" max="192" width="21" customWidth="1"/>
+    <col min="198" max="198" width="24" customWidth="1"/>
+    <col min="201" max="201" width="20" customWidth="1"/>
+    <col min="204" max="204" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:208">
+    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:209">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2475,10 +2481,10 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="6" t="s">
@@ -2493,28 +2499,28 @@
       <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="6" t="s">
@@ -2532,40 +2538,40 @@
       <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AX1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>51</v>
       </c>
       <c r="BA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="BD1" s="8" t="s">
@@ -2574,190 +2580,190 @@
       <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="6" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="BK1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BM1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BO1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="6" t="s">
         <v>67</v>
       </c>
       <c r="BQ1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BR1" s="8" t="s">
         <v>69</v>
       </c>
       <c r="BS1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BT1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BU1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BV1" s="6" t="s">
         <v>73</v>
       </c>
       <c r="BW1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BX1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="6" t="s">
         <v>76</v>
       </c>
       <c r="BZ1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CB1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CC1" s="7" t="s">
         <v>80</v>
       </c>
       <c r="CD1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CE1" s="6" t="s">
         <v>82</v>
       </c>
       <c r="CF1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CG1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CH1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CK1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="CL1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CM1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CN1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CO1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CP1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CR1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CS1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CT1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CU1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CV1" s="6" t="s">
         <v>99</v>
       </c>
       <c r="CW1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="6" t="s">
+      <c r="CX1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="CY1" s="6" t="s">
         <v>102</v>
       </c>
       <c r="CZ1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DA1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="8" t="s">
+      <c r="DC1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="6" t="s">
+      <c r="DD1" s="8" t="s">
         <v>106</v>
       </c>
       <c r="DE1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="8" t="s">
+      <c r="DF1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="6" t="s">
+      <c r="DG1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DH1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="DI1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="6" t="s">
+      <c r="DJ1" s="9" t="s">
         <v>112</v>
       </c>
       <c r="DK1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DL1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="6" t="s">
+      <c r="DM1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="DN1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="8" t="s">
+      <c r="DO1" s="7" t="s">
         <v>117</v>
       </c>
       <c r="DP1" s="8" t="s">
@@ -2769,13 +2775,13 @@
       <c r="DR1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="6" t="s">
+      <c r="DS1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="7" t="s">
+      <c r="DT1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="8" t="s">
+      <c r="DU1" s="7" t="s">
         <v>123</v>
       </c>
       <c r="DV1" s="8" t="s">
@@ -2811,13 +2817,13 @@
       <c r="EF1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="EG1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="8" t="s">
+      <c r="EH1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="6" t="s">
+      <c r="EI1" s="8" t="s">
         <v>137</v>
       </c>
       <c r="EJ1" s="6" t="s">
@@ -2826,25 +2832,25 @@
       <c r="EK1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="EL1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="6" t="s">
+      <c r="EM1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="8" t="s">
+      <c r="EN1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="6" t="s">
+      <c r="EO1" s="8" t="s">
         <v>143</v>
       </c>
       <c r="EP1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="8" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="6" t="s">
+      <c r="ER1" s="8" t="s">
         <v>146</v>
       </c>
       <c r="ES1" s="6" t="s">
@@ -2853,16 +2859,16 @@
       <c r="ET1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="7" t="s">
+      <c r="EU1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="EV1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="8" t="s">
+      <c r="EW1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EX1" s="8" t="s">
         <v>152</v>
       </c>
       <c r="EY1" s="6" t="s">
@@ -2871,16 +2877,16 @@
       <c r="EZ1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="7" t="s">
+      <c r="FA1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="6" t="s">
+      <c r="FB1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="8" t="s">
+      <c r="FC1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="6" t="s">
+      <c r="FD1" s="8" t="s">
         <v>158</v>
       </c>
       <c r="FE1" s="6" t="s">
@@ -2889,25 +2895,25 @@
       <c r="FF1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="7" t="s">
+      <c r="FG1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="6" t="s">
+      <c r="FH1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="8" t="s">
+      <c r="FI1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="6" t="s">
+      <c r="FJ1" s="8" t="s">
         <v>164</v>
       </c>
       <c r="FK1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="8" t="s">
+      <c r="FL1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="6" t="s">
+      <c r="FM1" s="8" t="s">
         <v>167</v>
       </c>
       <c r="FN1" s="6" t="s">
@@ -2916,16 +2922,16 @@
       <c r="FO1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="7" t="s">
+      <c r="FP1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="6" t="s">
+      <c r="FQ1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="8" t="s">
+      <c r="FR1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="6" t="s">
+      <c r="FS1" s="8" t="s">
         <v>173</v>
       </c>
       <c r="FT1" s="6" t="s">
@@ -2934,16 +2940,16 @@
       <c r="FU1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="7" t="s">
+      <c r="FV1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="6" t="s">
+      <c r="FW1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="8" t="s">
+      <c r="FX1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="6" t="s">
+      <c r="FY1" s="8" t="s">
         <v>179</v>
       </c>
       <c r="FZ1" s="6" t="s">
@@ -2952,16 +2958,16 @@
       <c r="GA1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="GB1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="6" t="s">
+      <c r="GC1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="8" t="s">
+      <c r="GD1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="6" t="s">
+      <c r="GE1" s="8" t="s">
         <v>185</v>
       </c>
       <c r="GF1" s="6" t="s">
@@ -2970,16 +2976,16 @@
       <c r="GG1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GH1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" s="6" t="s">
+      <c r="GI1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" s="8" t="s">
+      <c r="GJ1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" s="6" t="s">
+      <c r="GK1" s="8" t="s">
         <v>191</v>
       </c>
       <c r="GL1" s="6" t="s">
@@ -2988,34 +2994,34 @@
       <c r="GM1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="GN1" s="7" t="s">
+      <c r="GN1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="GO1" s="6" t="s">
+      <c r="GO1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="GP1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="GQ1" s="6" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>197</v>
       </c>
       <c r="GR1" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="GS1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" s="6" t="s">
+      <c r="GT1" s="8" t="s">
         <v>200</v>
       </c>
       <c r="GU1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="GV1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="GW1" s="6" t="s">
+      <c r="GW1" s="8" t="s">
         <v>203</v>
       </c>
       <c r="GX1" s="6" t="s">
@@ -3024,638 +3030,644 @@
       <c r="GY1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="GZ1" s="7" t="s">
+      <c r="GZ1" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="HA1" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="2:208">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="2:209">
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z3" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="Y3" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="AA3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AK3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="AP3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="EA3" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="EF3" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="EM3" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="EN3" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="EO3" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="EQ3" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="ER3" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="ES3" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="ET3" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="EU3" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="EV3" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="EW3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="EX3" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="EY3" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="FA3" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="FC3" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="FD3" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="FE3" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="FF3" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="FG3" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="FH3" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FI3" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="FJ3" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="FK3" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="FL3" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="FM3" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="FN3" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="FO3" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="FP3" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="FQ3" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FR3" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FS3" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="FT3" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FU3" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="FV3" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="FW3" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="FX3" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="FY3" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FZ3" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="GA3" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="GB3" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="GC3" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="GD3" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="GE3" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="GF3" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="GG3" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="GH3" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="GI3" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="GJ3" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="GK3" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="GL3" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="GM3" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="GN3" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="GO3" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="GP3" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="GQ3" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="GR3" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="GS3" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="GT3" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="GU3" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="GV3" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="GW3" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="GX3" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="GY3" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="GZ3" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
+      </c>
+      <c r="HA3" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3685,42 +3697,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\yuantao\yuantao\backstage-manager\backstage-web\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="6" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="417">
   <si>
     <t>提交id</t>
   </si>
@@ -663,9 +668,6 @@
   </si>
   <si>
     <t>&lt;jx:forEach items="${list}" var="li" varStatus="status"&gt;</t>
-  </si>
-  <si>
-    <t>${li.crerttime}</t>
   </si>
   <si>
     <t>${li.company}</t>
@@ -1314,18 +1316,20 @@
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
+  <si>
+    <t>${li.crerttime}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.id}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,156 +1360,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,194 +1384,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1741,252 +1421,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2020,62 +1458,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2360,55 +1754,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.8796296296296" customWidth="1"/>
-    <col min="14" max="14" width="12.1296296296296" customWidth="1"/>
-    <col min="26" max="26" width="13.75" customWidth="1"/>
-    <col min="82" max="83" width="18.6296296296296" customWidth="1"/>
-    <col min="87" max="87" width="13.1296296296296" customWidth="1"/>
-    <col min="107" max="107" width="15.3796296296296" customWidth="1"/>
-    <col min="108" max="109" width="14.3796296296296" customWidth="1"/>
-    <col min="114" max="114" width="15.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="26" max="26" width="13.77734375" customWidth="1"/>
+    <col min="82" max="83" width="18.6640625" customWidth="1"/>
+    <col min="87" max="87" width="13.109375" customWidth="1"/>
+    <col min="107" max="107" width="15.33203125" customWidth="1"/>
+    <col min="108" max="109" width="14.33203125" customWidth="1"/>
+    <col min="114" max="114" width="15.33203125" customWidth="1"/>
     <col min="120" max="120" width="14" customWidth="1"/>
-    <col min="126" max="126" width="17.6296296296296" customWidth="1"/>
-    <col min="127" max="127" width="13.5" customWidth="1"/>
-    <col min="128" max="128" width="11.5" customWidth="1"/>
+    <col min="126" max="126" width="17.6640625" customWidth="1"/>
+    <col min="127" max="127" width="13.44140625" customWidth="1"/>
+    <col min="128" max="128" width="11.44140625" customWidth="1"/>
     <col min="129" max="129" width="13" customWidth="1"/>
-    <col min="130" max="130" width="13.5" customWidth="1"/>
+    <col min="130" max="130" width="13.44140625" customWidth="1"/>
     <col min="131" max="131" width="13" customWidth="1"/>
-    <col min="141" max="141" width="13.3796296296296" customWidth="1"/>
-    <col min="142" max="142" width="13.5" customWidth="1"/>
-    <col min="144" max="144" width="19.6296296296296" customWidth="1"/>
-    <col min="145" max="145" width="15.1296296296296" customWidth="1"/>
-    <col min="153" max="153" width="20.8796296296296" customWidth="1"/>
-    <col min="159" max="159" width="14.6296296296296" customWidth="1"/>
-    <col min="164" max="164" width="13.8796296296296" customWidth="1"/>
-    <col min="165" max="165" width="19.1296296296296" customWidth="1"/>
-    <col min="174" max="174" width="22.25" customWidth="1"/>
-    <col min="180" max="180" width="23.8796296296296" customWidth="1"/>
-    <col min="185" max="185" width="16.8796296296296" customWidth="1"/>
-    <col min="186" max="186" width="19.75" customWidth="1"/>
-    <col min="191" max="191" width="14.5" customWidth="1"/>
+    <col min="141" max="141" width="13.33203125" customWidth="1"/>
+    <col min="142" max="142" width="13.44140625" customWidth="1"/>
+    <col min="144" max="144" width="19.6640625" customWidth="1"/>
+    <col min="145" max="145" width="15.109375" customWidth="1"/>
+    <col min="153" max="153" width="20.88671875" customWidth="1"/>
+    <col min="159" max="159" width="14.6640625" customWidth="1"/>
+    <col min="164" max="164" width="13.88671875" customWidth="1"/>
+    <col min="165" max="165" width="19.109375" customWidth="1"/>
+    <col min="174" max="174" width="22.21875" customWidth="1"/>
+    <col min="180" max="180" width="23.88671875" customWidth="1"/>
+    <col min="185" max="185" width="16.88671875" customWidth="1"/>
+    <col min="186" max="186" width="19.77734375" customWidth="1"/>
+    <col min="191" max="191" width="14.44140625" customWidth="1"/>
     <col min="192" max="192" width="21" customWidth="1"/>
     <col min="198" max="198" width="24" customWidth="1"/>
     <col min="201" max="201" width="20" customWidth="1"/>
     <col min="204" max="204" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:209">
+    <row r="1" spans="1:209" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3037,706 +2431,708 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="2:209">
+    <row r="3" spans="1:209" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="DS3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="DT3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="DU3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="DV3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="DW3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="DX3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="DX3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="DY3" s="1" t="s">
+      <c r="DZ3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="EG3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="EI3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="EK3" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="EO3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="ES3" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="ET3" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="EU3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="EV3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="EW3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="EX3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="EY3" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="EZ3" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="FA3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FB3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="FB3" s="1" t="s">
+      <c r="FC3" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="FC3" s="1" t="s">
+      <c r="FD3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="FD3" s="1" t="s">
+      <c r="FE3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="FE3" s="1" t="s">
+      <c r="FF3" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="FF3" s="1" t="s">
+      <c r="FG3" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="FG3" s="1" t="s">
+      <c r="FH3" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="FH3" s="1" t="s">
+      <c r="FI3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="FI3" s="1" t="s">
+      <c r="FJ3" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="FJ3" s="1" t="s">
+      <c r="FK3" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="FK3" s="1" t="s">
+      <c r="FL3" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="FL3" s="1" t="s">
+      <c r="FM3" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="FM3" s="1" t="s">
+      <c r="FN3" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="FN3" s="1" t="s">
+      <c r="FO3" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="FO3" s="1" t="s">
+      <c r="FP3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="FP3" s="1" t="s">
+      <c r="FQ3" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="FQ3" s="1" t="s">
+      <c r="FR3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="FR3" s="1" t="s">
+      <c r="FS3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="FS3" s="1" t="s">
+      <c r="FT3" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="FT3" s="1" t="s">
+      <c r="FU3" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="FU3" s="1" t="s">
+      <c r="FV3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="FV3" s="1" t="s">
+      <c r="FW3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="FW3" s="1" t="s">
+      <c r="FX3" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="FX3" s="1" t="s">
+      <c r="FY3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="FY3" s="1" t="s">
+      <c r="FZ3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="FZ3" s="1" t="s">
+      <c r="GA3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="GA3" s="1" t="s">
+      <c r="GB3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="GB3" s="1" t="s">
+      <c r="GC3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="GC3" s="1" t="s">
+      <c r="GD3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="GD3" s="1" t="s">
+      <c r="GE3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="GE3" s="1" t="s">
+      <c r="GF3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="GF3" s="1" t="s">
+      <c r="GG3" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="GG3" s="1" t="s">
+      <c r="GH3" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="GH3" s="1" t="s">
+      <c r="GI3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="GI3" s="1" t="s">
+      <c r="GJ3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="GJ3" s="1" t="s">
+      <c r="GK3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="GK3" s="1" t="s">
+      <c r="GL3" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="GL3" s="1" t="s">
+      <c r="GM3" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="GM3" s="1" t="s">
+      <c r="GN3" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="GN3" s="1" t="s">
+      <c r="GO3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="GO3" s="1" t="s">
+      <c r="GP3" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="GP3" s="1" t="s">
+      <c r="GQ3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="GQ3" s="1" t="s">
+      <c r="GR3" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="GR3" s="1" t="s">
+      <c r="GS3" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="GS3" s="1" t="s">
+      <c r="GT3" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="GT3" s="1" t="s">
+      <c r="GU3" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="GU3" s="1" t="s">
+      <c r="GV3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="GV3" s="1" t="s">
+      <c r="GW3" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="GW3" s="1" t="s">
+      <c r="GX3" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="GX3" s="1" t="s">
+      <c r="GY3" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="GY3" s="1" t="s">
+      <c r="GZ3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="GZ3" s="1" t="s">
+      <c r="HA3" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="HA3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:209" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F9:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="18.8796296296296" customWidth="1"/>
-    <col min="8" max="8" width="28.8796296296296" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="6:11">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>330</v>
-      </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>提交id</t>
   </si>
@@ -774,554 +774,771 @@
     <t>${li.th1mark}</t>
   </si>
   <si>
+    <t>${li.topic1Three}</t>
+  </si>
+  <si>
+    <t>${li.th1sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic10One}</t>
+  </si>
+  <si>
+    <t>${li.topic22One}</t>
+  </si>
+  <si>
+    <t>${li.th22mark}</t>
+  </si>
+  <si>
+    <t>${li.topic22Two}</t>
+  </si>
+  <si>
+    <t>${li.topic22Three}</t>
+  </si>
+  <si>
+    <t>${li.th22sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic22Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic30One}</t>
+  </si>
+  <si>
+    <t>${li.th30mark}</t>
+  </si>
+  <si>
+    <t>${li.topic30Two}</t>
+  </si>
+  <si>
+    <t>${li.topic30Three}</t>
+  </si>
+  <si>
+    <t>${li.th30sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic30Fraction}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>${li.crerttime}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.id}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic2One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic2Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th3mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic3One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic1Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${li.topic1Two}</t>
-  </si>
-  <si>
-    <t>${li.topic1Three}</t>
-  </si>
-  <si>
-    <t>${li.th1sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic1Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic2One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th2mark}</t>
-  </si>
-  <si>
-    <t>${li.topic2Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic2Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th2sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic2Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic3One}</t>
-  </si>
-  <si>
-    <t>${li.th3mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic4One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic3Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th4mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic4Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic5One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th5mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic5Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic6One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th6mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic6Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic7One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th7mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic7Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic8One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th8mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic8Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic9Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th9mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic9Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic9One}</t>
-  </si>
-  <si>
-    <t>${li.topic9Two}</t>
-  </si>
-  <si>
-    <t>${li.th9mark}</t>
-  </si>
-  <si>
-    <t>${li.topic9Three}</t>
-  </si>
-  <si>
-    <t>${li.topic10One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic10Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th10mark}</t>
-  </si>
-  <si>
-    <t>${li.topic10Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic10Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th10sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic10Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic11One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th11mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic11Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic12One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th12mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic12Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic13One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th13mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic13Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th14mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic14One}</t>
-  </si>
-  <si>
-    <t>${li.th14mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic14Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic14Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th14sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic14Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic15One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th15mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic15Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic15Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th15sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic15Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic16One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th16mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic16Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic16Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th16sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic16Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic17One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th17mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic17Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th17sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic17Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic18One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th18mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic18Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic19One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th19mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic19Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic19Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th19sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic19Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic20One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th20mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic20Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic20Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th20sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic20Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic21One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th21mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic21Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic21Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th21sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic21Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic22One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th22mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic22Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic22Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th22sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic22Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic23One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic23Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th23mark}</t>
-  </si>
-  <si>
-    <t>${li.topic23Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th24mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic24Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic24One}</t>
-  </si>
-  <si>
-    <t>${li.th24mark}</t>
-  </si>
-  <si>
-    <t>${li.topic24Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic25One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th25mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic25Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic26One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th26mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic26Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic27One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th27mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic27Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic27Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th27sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic27Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic28One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th28mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic28Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th29mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic29One}</t>
-  </si>
-  <si>
-    <t>${li.th29mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic29Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic29Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th29sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic29Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic30One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th30mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic30Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic30Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th30sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic30Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic31One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th31mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic31Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic31Two}</t>
-  </si>
-  <si>
-    <t>${li.topic31Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th31sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic31Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic32One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th32mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic32Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic33One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th33mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic33Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic33Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th33sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic33Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic34One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th34mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic34Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic34Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th34sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic34Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic35One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th35mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic35Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic35Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th35sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic35Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic36One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th36mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic36Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic36Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th36sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic36Fraction}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic37One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th37mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic37Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic37Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th37sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic38One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic37Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic38One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th38mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic38Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.th39mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic39Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${li.topic40One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic39One}</t>
-  </si>
-  <si>
-    <t>${li.th39mark}</t>
-  </si>
-  <si>
-    <t>${li.topic39Two}</t>
-  </si>
-  <si>
-    <t>${li.topic40One}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th40mark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic40Two}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic40Three}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.th40sorce}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${li.topic40Fraction}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${li.crerttime}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.id}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1762,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="GK1" workbookViewId="0">
+      <selection activeCell="GY8" sqref="GY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2438,10 +2655,10 @@
     </row>
     <row r="3" spans="1:209" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>415</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>209</v>
@@ -2519,552 +2736,552 @@
         <v>233</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BI3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="BJ3" s="1" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="EA3" s="1" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="EF3" s="1" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="EM3" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="EN3" s="1" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="EO3" s="1" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="EQ3" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="ER3" s="1" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="ES3" s="1" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="ET3" s="1" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="EU3" s="1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="EV3" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="EW3" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="EX3" s="1" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="EY3" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="FA3" s="1" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="FC3" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="FD3" s="1" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="FE3" s="1" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="FF3" s="1" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="FG3" s="1" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="FH3" s="1" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="FI3" s="1" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="FJ3" s="1" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="FK3" s="1" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="FL3" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="FM3" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="FN3" s="1" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="FO3" s="1" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="FP3" s="1" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="FQ3" s="1" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="FR3" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="FS3" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="FT3" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="FU3" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="FV3" s="1" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="FW3" s="1" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="FX3" s="1" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="FY3" s="1" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="FZ3" s="1" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="GA3" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="GB3" s="1" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="GC3" s="1" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="GD3" s="1" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="GE3" s="1" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="GF3" s="1" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="GG3" s="1" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="GH3" s="1" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="GI3" s="1" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="GJ3" s="1" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="GK3" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="GL3" s="1" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="GM3" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="GN3" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="GO3" s="1" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="GP3" s="1" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="GQ3" s="1" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="GR3" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="GS3" s="1" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="GT3" s="1" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="GU3" s="1" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="GV3" s="1" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="GW3" s="1" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="GX3" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="GY3" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="GZ3" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="HA3" s="1" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3093,42 +3310,42 @@
   <sheetData>
     <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>329</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>358</v>
+        <v>244</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>361</v>
+        <v>247</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>362</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\yuantao\yuantao\backstage-manager\backstage-web\src\main\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="6" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="474">
   <si>
     <t>提交id</t>
   </si>
@@ -100,45 +95,33 @@
     <t>我承诺本次执行及接下来的问卷填写均真实有效，公平公正</t>
   </si>
   <si>
-    <t>1-1店外环境是否符合要求？(单选）</t>
+    <t>1-1（门店外三米内干净，无纸屑、烟头、摇摇车及其他非门店经营物品，屋檐下无蜘蛛网）是否符合要求？(单选）--店外区域</t>
   </si>
   <si>
     <t>1-1分值</t>
   </si>
   <si>
     <t>1-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>1-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>1-3扣分</t>
   </si>
   <si>
     <t>第1题得分
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>2-1店外设施是否符合要求？(单选）</t>
+    <t>2-1（店外招牌干净整洁、有无破损；招牌灯正常开启/关闭）是否符合要求？(单选）----店外区域选）</t>
   </si>
   <si>
     <t>2-1分值</t>
   </si>
   <si>
     <t>2-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>2-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>2-3得分</t>
   </si>
   <si>
     <t>第2题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>3-1进店初步感受是否符合要求？(单选）</t>
+    <t>3-1（店门玻璃、橱窗玻璃干净明亮、清洁无污渍）是否符合要求？(单选）--店外区域</t>
   </si>
   <si>
     <t>3-1分值</t>
@@ -147,7 +130,7 @@
     <t>3-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>4-1进店初步感受是否符合要求？(单选）</t>
+    <t>4-1（促销活动/新商品玻璃橱窗海报无过期内容【注：有透明屏的门店需要确认屏幕是否开启】；“你身边的超级生活管家”服务型海报张贴在醒目位置，所有海报整齐张贴在玻璃橱窗腰线以下；）是否符合要求？(单选）--店外区域</t>
   </si>
   <si>
     <t>4-1分值</t>
@@ -156,7 +139,7 @@
     <t>4-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>5-1店内天花板及地面是否符合要求？(单选）</t>
+    <t>5-1(进店时，门铃、音乐正常播放，并且音量适中)是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
     <t>5-1分值</t>
@@ -165,16 +148,13 @@
     <t>5-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>6-1店内天花板及地面是否符合要求？(单选）</t>
+    <t>6-1（店内灯光全部正常开启，营造出购物环境）是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
     <t>6-1分值</t>
   </si>
   <si>
-    <t>6-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>7-1柜台区域是否符合要求？(单选）</t>
+    <t>7-1（空调开启温度：气温高于30℃时可开启冷气，冷气温度26℃；气温低于10℃时可开暖气，最高温度不得超过18℃；其他情况不允许开启；以体感舒适度为准）是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
     <t>7-1分值</t>
@@ -183,7 +163,7 @@
     <t>7-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>8-1速食台及关东煮区域是否符合要求？(单选）</t>
+    <t>8-1（购物篮放置门内进门口处，清洁无污渍、油渍，且数量不低于5个）是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
     <t>8-1分值</t>
@@ -192,38 +172,29 @@
     <t>8-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>9-1门店内有无休闲区？</t>
-  </si>
-  <si>
-    <t>9-2休闲区域是否符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>9-2分值</t>
+    <t>9-1（休闲区桌面干净整洁，桌椅摆放整齐）是否符合要求？(单选）[神客请注意；顾客正在占用位置不考核，其它位置考核]--卖场周边区域</t>
+  </si>
+  <si>
+    <t>9-1分值</t>
   </si>
   <si>
     <t>9-3不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>10-1货架、风幕柜、冷冻柜是否符合要求？(单选）</t>
+    <t>10-1（店内垃圾桶：店内垃圾桶表面干净无污渍，无垃圾袋外露，桶内垃圾无溢出）是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
     <t>10-1分值</t>
   </si>
   <si>
     <t>10-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>10-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>10-3得分</t>
   </si>
   <si>
     <t>第10题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>11-1货架、风幕柜、冷冻柜是否符合要求？(单选）</t>
+    <t>11-1（店内天花板无蜘蛛网，地面干净整洁【下雨天不考评地板污渍】；地面湿滑，门店有将 “小心地滑” 指示牌立出）是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
     <t>11-1分值</t>
@@ -232,7 +203,7 @@
     <t>11-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>12-1洗手池是否符合要求？(单选）</t>
+    <t>12-1（消防设备（灭火器、消防栓）前方1米内无遮挡；在指定使用期限内；指针在绿色区域，消防通道畅通）是否符合要求？(单选）--卖场周边区域）</t>
   </si>
   <si>
     <t>12-1分值</t>
@@ -241,7 +212,7 @@
     <t>12-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>13-1安全管理是否符合要求？(单选）</t>
+    <t>13-1（应急指示灯：安全指示灯正常工作；应急照明灯无损坏；疏散地贴无破损)是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
     <t>13-1分值</t>
@@ -250,45 +221,33 @@
     <t>13-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>14-1价签管理是否符合要求？(单选）</t>
+    <t>14-1苏宁帮客：1、屏显（滚动播放）、广播必须有；2、侧挡板、台卡、三折页、单页、海报，（有一处有即可）；3、有苏宁邮局的门店必须要有帮客的宣传内容，如：台卡，展架）是否符合要求？--卖场周边区域</t>
   </si>
   <si>
     <t>14-1分值</t>
   </si>
   <si>
     <t>14-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>14-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>14-3得分</t>
   </si>
   <si>
     <t>第14题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>15-1水果蔬菜是否符合要求？(单选）</t>
+    <t>15-1（苏宁邮局：1、邮局内不得摆放小店货物（货物，纸箱，杂物等）；2、邮局是否有“苏宁邮局”四个字背景墙）是否符合要求？--卖场周边区域</t>
   </si>
   <si>
     <t>15-1分值</t>
   </si>
   <si>
     <t>15-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>15-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>15-3得分</t>
   </si>
   <si>
     <t>第15题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>16-1冰淇淋柜是否符合要求？(单选）</t>
+    <t>16-1（顾客进店时，店员员工对所有进店顾客喊“欢迎光临苏宁小店”）是否符合要求？(单选）--柜台服务</t>
   </si>
   <si>
     <t>16-1分值</t>
@@ -307,23 +266,20 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>17-1风幕柜是否符合要求？(单选）</t>
+    <t>17-1顾客购物时（当该顾客选择商品时，推荐顾客办理超级会员）是否符合要求？--柜台服务 [话术：这款商品是会员价商品，现在办理苏宁小店超级会员，可以省×块钱。苏宁小店超级会员，每月只需9.9元可立享会员专享价，还有劲爆商品供您挑选。</t>
   </si>
   <si>
     <t>17-1分值</t>
   </si>
   <si>
     <t>17-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>17-3得分</t>
   </si>
   <si>
     <t>第17题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>18-1饮料柜是否符合要求？(单选）</t>
+    <t>18-1 顾客付款时（当顾客付款时，能说“您好，会员有积分有优惠，请您出示会员码”）是否符合要求？--柜台服务 [情况一：没有会员码的时候推荐“顾客下载APP”，下载完APP后再扫顾客APP上的会员码。 话术：“那可以帮您下载，现新用户还可以领取15元优惠券（含线上28-10元优惠券，线下15-5优惠券），即领即用。 情况二：如果顾客不愿意出示会员码或下载APP，是否让顾客报手机号。 话术：那您报一下手机号，我们可以帮您积分。</t>
   </si>
   <si>
     <t>18-1分值</t>
@@ -332,89 +288,62 @@
     <t>18-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>19-1收银台热食是否符合要求？(单选）</t>
+    <t>19-1顾客支付时（顾客支付时，店员是否有说“您好，总计消费XX钱”，在顾客购2件及以上商品提醒【您是否需要购物袋】，若顾客购买的商品中有会员价商品，是否推荐办理超级会员）是否符合要求？--柜台服务 [话术：“您购买的商品中有会员价商品，您可以9.9元办理一个月会员，立享会员价”</t>
   </si>
   <si>
     <t>19-1分值</t>
   </si>
   <si>
     <t>19-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>19-3得分</t>
   </si>
   <si>
     <t>第19题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>20-1收银台热食是否符合要求？(单选）</t>
+    <t>20-1 顾客选择支付时（顾客支付选择时：店员是否有说“请问您是使用苏宁支付吗”？，如果顾客用苏宁支付，是否推荐开通免密支付）是否符合要求？--柜台服务 [话术：“请您出示付款码，您也可以开通免密支付，下次支付更便捷。（如已开通不需要推荐）</t>
   </si>
   <si>
     <t>20-1分值</t>
   </si>
   <si>
     <t>20-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>20-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>20-3得分</t>
   </si>
   <si>
     <t>第20题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>21-1面包货架是否符合要求？(单选）</t>
+    <t>21-1顾客付款后（付款后，店员是否有说“您的小票请收好！”，同时向顾客双手呈递购物小票及找零【含刷卡】）是否符合要求？--柜台服务</t>
   </si>
   <si>
     <t>21-1分值</t>
   </si>
   <si>
     <t>21-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>21-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>21-3得分</t>
   </si>
   <si>
     <t>第21题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>22-1货品陈列是否符合要求？(单选）</t>
+    <t>22-1顾客离开门店时，员工有向顾客表示谢意：“欢迎下次光临，请慢走！”等告别用语）是否符合要求？(单选）--柜台服务</t>
   </si>
   <si>
     <t>22-1分值</t>
-  </si>
-  <si>
-    <t>22-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>22-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>22-3得分</t>
   </si>
   <si>
     <t>第22题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>23-1货品陈列是否符合要求？(单选）</t>
+    <t>23-1店内所有员工穿工装是否符合要求？--柜台服务</t>
   </si>
   <si>
     <t>23-1分值</t>
   </si>
   <si>
-    <t>23-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>24-1货品陈列是否符合要求？(单选）</t>
+    <t>24-1（工装平整、干净，无油渍，无脏黑；上衣放在裤子外面；按标准佩戴工牌；按季节穿不同工装；内衬衣服不外漏；操作熟食必须佩带手套和口罩；）是否符合要求？--柜台服务</t>
   </si>
   <si>
     <t>24-1分值</t>
@@ -423,7 +352,7 @@
     <t>24-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>25-1货品陈列是否符合要求？(单选）</t>
+    <t>25-1穿蓝色、深色牛仔长裤或蓝色、深色无其他装饰休闲裤；不得穿乞丐裤、哈韩裤或其他夸张裤；裤子长度以遮住脚踝为准；不得穿拖鞋式雨鞋、凉鞋、拖鞋、高跟鞋、靴子；必须穿袜子）是否符合要求？--柜台服务</t>
   </si>
   <si>
     <t>25-1分值</t>
@@ -432,7 +361,8 @@
     <t>25-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>26-1经营是否符合要求？(单选）</t>
+    <t xml:space="preserve">26-1（不允许挑染或全染夸张颜色；头发干净，看不到头屑；男生不留鬓角；男生前面头发不得超过眉毛；男生两侧头发必须露出整个耳朵；女生刘海不得遮住眼睛；女生长发（过肩即为长发）要扎起，不得披发；不戴耳环、耳钉）是否符合要求？--柜台服务
+</t>
   </si>
   <si>
     <t>26-1分值</t>
@@ -441,26 +371,20 @@
     <t>26-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>27-1顾客进店是否符合要求？(单选）</t>
+    <t>27-1男生：不留胡须；不戴金属项链；不得化妆；上班前不吃葱、蒜等有异味食物；不喝酒及含酒精的饮料。女生：上班可淡妆，不得浓妆艳抹；不得戴假睫毛；不得戴鼻环、唇环；上班前不吃葱、蒜等有异味食物；不喝酒及含酒精的饮料）是否符合要求？--柜台服务</t>
   </si>
   <si>
     <t>27-1分值</t>
   </si>
   <si>
     <t>27-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>27-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>27-3得分</t>
   </si>
   <si>
     <t>第27题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>28-1顾客进店是否符合要求？</t>
+    <t>28-1（手部保持清洁，指甲无污垢；指甲修剪整齐，长度为从掌心方向看不到指甲露出指尖为适合；当班期间不能涂指甲油；不带假指甲；不得有纹身、刺青（包括手臂、手肘处）；上班时不允许佩戴任何饰物（戒指、手表等））是否符合要求？--柜台服务</t>
   </si>
   <si>
     <t>28-1分值</t>
@@ -469,64 +393,46 @@
     <t>28-2不符合要求的原因？</t>
   </si>
   <si>
-    <t>29-1结账前店员是否符合要求？</t>
+    <t>29-1（员工在店内的行为违反店面运营管理规范即扣分；例如：着工装抽烟、在店内玩手机、聚众聊天、双手环抱、倚靠货架等；）是否符合要求？--柜台服务</t>
   </si>
   <si>
     <t>29-1分值</t>
   </si>
   <si>
     <t>29-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>29-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>29-3得分</t>
   </si>
   <si>
     <t>第29题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>30-1结账时店员是否符合要求？</t>
+    <t>30-1收银前后柜台表面干净整洁，无文件台账及私人物品【手机、护手霜、水杯等】存放）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>30-1分值</t>
   </si>
   <si>
     <t>30-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>30-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>30-3得分</t>
   </si>
   <si>
     <t>第30题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>31-1付款后店员是否符合要求？</t>
+    <t>31-1档期活动布展物料：屏显、客显正常播放，A4台卡放置在收银台，且无过期内容）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>31-1分值</t>
   </si>
   <si>
     <t>31-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>31-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>31-3得分</t>
   </si>
   <si>
     <t>第31题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>32-1顾客离开是否符合要求？</t>
+    <t>32-1关东煮：收银台有关东煮设备，关东煮无发黑品项，品项数不低于5个）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>32-1分值</t>
@@ -535,111 +441,79 @@
     <t>32-2不符合要求的原因？</t>
   </si>
   <si>
-    <t>33-1员工仪容仪表是否符合要求？</t>
+    <t>33-1（烤肠机：收银台有烤肠机设备，烤肠机陈列量不低于5根，无发黑品质、无表皮爆裂品项）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>33-1分值</t>
   </si>
   <si>
     <t>33-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>33-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>33-3得分</t>
   </si>
   <si>
     <t>第33题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>34-1员工仪容仪表是否符合要求？</t>
+    <t>34-1（蒸包机：收银台有蒸包机设备，蒸包机陈列品项数不低于4个）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>34-1分值</t>
   </si>
   <si>
     <t>34-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>34-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>34-3得分</t>
   </si>
   <si>
     <t>第34题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>35-1员工仪容仪表是否符合要求？</t>
+    <t>35-1（茶叶蛋锅：收银台有茶叶蛋锅设备，茶叶蛋陈列数量不低于10个）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>35-1分值</t>
   </si>
   <si>
     <t>35-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>35-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>35-3得分</t>
   </si>
   <si>
     <t>第35题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>36-1员工仪容仪表是否符合要求？</t>
+    <t xml:space="preserve">36-1（门店有香烟经营，并且陈列整齐，货量充足[地铁店和学校店不考核]）是否符合要求？(单选）--收银柜台区域
+</t>
   </si>
   <si>
     <t>36-1分值</t>
   </si>
   <si>
     <t>36-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>36-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>36-3得分</t>
   </si>
   <si>
     <t>第36题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>37-1员工仪容仪表是否符合要求？</t>
+    <t>37-1（打餐区是否干净整洁，无杂物堆积；关东煮锅、烤肠机、茶叶蛋锅、蒸包机周边、防尘罩上无汤渍、无污渍）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>37-1分值</t>
   </si>
   <si>
     <t>37-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>37-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>37-3得分</t>
   </si>
   <si>
     <t>第37题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>38-1员工行为检查是否符合要求？</t>
+    <t>38-1小店卡卡架是否按照要求陈列【摆放在收银台显眼位置】）是否符合要求？(单选）--收银柜台区域</t>
   </si>
   <si>
     <t>38-1分值</t>
   </si>
   <si>
-    <t>38-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>39-1证照管理是否符合要求？</t>
+    <t>39-1（门店营业许可证、食品经营许可证是否公示；员工健康证是否齐全，在有效期内，并在收银区公示）是否符合要求？--收银柜台区域</t>
   </si>
   <si>
     <t>39-1分值</t>
@@ -648,26 +522,237 @@
     <t>39-2不符合要求的原因？</t>
   </si>
   <si>
-    <t>40-1服务产品是否符合要求？</t>
+    <t>40-1（生鲜商品陈列整齐，按分类、大小、色彩搭配陈列，颜色相近商品不要放在一起，如橙子与橘子[无水果蔬菜则直接得分]）是否符合要求？(单选）--生鲜区域</t>
   </si>
   <si>
     <t>40-1分值</t>
   </si>
   <si>
     <t>40-2不符合要求的原因？</t>
-  </si>
-  <si>
-    <t>40-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>40-3得分</t>
   </si>
   <si>
     <t>第40题
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
+    <t>41-1（有水果蔬菜品项售卖的，14点前货架无缝陈列，不可以露台面）是否符合要求？(单选）--生鲜区域</t>
+  </si>
+  <si>
+    <t>41-1分值</t>
+  </si>
+  <si>
+    <t>41-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>42-1（门店冷冻柜陈列要求：水产肉品陈列面不低于整个冰柜的1/2，低于1/2则此项扣分[无生鲜冷柜直接得分]）是否符合要求？(单选）--生鲜区域</t>
+  </si>
+  <si>
+    <t>42-1分值</t>
+  </si>
+  <si>
+    <t>42-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>43-1（生鲜品质检查；品质不佳【干瘪、发蔫、碰撞坏损】的单个商品应小于5个）是否符合要求？(单选）--生鲜区域</t>
+  </si>
+  <si>
+    <t>43-1分值</t>
+  </si>
+  <si>
+    <t>43-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>44-1（风幕柜及冷冻柜温度定时检查，并在温度登记表上做好记录、签字）是否符合要求？(单选）--冷藏设备区域</t>
+  </si>
+  <si>
+    <t>44-1分值</t>
+  </si>
+  <si>
+    <t>44-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>45-1 （风幕柜货架牌面有货，但未向前陈列数应该小于3个；风幕柜饭团、三明治、便当总数量应大约9个）是否符合要求？(单选）--冷藏设备区域</t>
+  </si>
+  <si>
+    <t>45-1分值</t>
+  </si>
+  <si>
+    <t>45-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>46-1（冰淇淋柜内商品陈列不超过红色警戒线；柜壁冰霜厚度不超过1cm；柜门保持关闭；【只能存放雪糕、水饺、汤圆、面点，不得存放日配原材料及其他有气味冻制品】）是否符合要求？(单选）--冷藏设备区域</t>
+  </si>
+  <si>
+    <t>46-1分值</t>
+  </si>
+  <si>
+    <t>46-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>47-1（饮料冷藏柜货架牌面有货，未向前陈列数应小于3个；饮料冷藏柜货架牌面无货数应小于5个）是否符合要求？(单选）--冷藏设备区域</t>
+  </si>
+  <si>
+    <t>47-1分值</t>
+  </si>
+  <si>
+    <t>47-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>48-1 （1、所有货架的价签应及时更新；2、价签破损或缺失数总计应低于5个；3、价签商品左下角对齐，未对齐应低于5个；4、不得手写价签）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>48-1分值</t>
+  </si>
+  <si>
+    <t>48-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>48-3检测中共有几处不符合要求？(单选）</t>
+  </si>
+  <si>
+    <t>48-3得分</t>
+  </si>
+  <si>
+    <t>49-1 （面包货架应陈列整齐丰满，面包品项数应高于6个，面包陈列总数量应高于12个）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>49-1分值</t>
+  </si>
+  <si>
+    <t>49-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>50-1 （常规商品陈列整齐（前后左右一条线），无破损、无挤压变形、无缺货（常温商品:单层货架上，牌面有货，但未向前陈列数应低于5个，全场货架欠品数应低于5个）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>50-1分值</t>
+  </si>
+  <si>
+    <t>50-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>51-1（门店内购物车和商品不得堵塞购物通道，商品存放不应直接落地）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>51-1分值</t>
+  </si>
+  <si>
+    <t>51-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>52-1（地堆陈列必须使用防潮栈板，重点检查两个必做品：伊利安慕希、蒙牛纯甄）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>52-1分值</t>
+  </si>
+  <si>
+    <t>52-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>53-1 （夏令商品陈列：防晒霜、花露水、驱蚊驱虫、丝袜、凉拖、小风扇）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>53-1分值</t>
+  </si>
+  <si>
+    <t>53-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>54-1（非食产品陈列：口罩、红包、计生用品、毛巾、牙线、创可贴、玩具、面膜、雨伞）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>54-1分值</t>
+  </si>
+  <si>
+    <t>54-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>55-1 （重点品牌商品陈列：蓝月亮、云南白药、冈本、南孚、金霸王门店必须经营；有香烟经营的门店必须要有打火机销售）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>55-1分值</t>
+  </si>
+  <si>
+    <t>55-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>56-1（自有商品陈列：苏宁小店定制洁肤柔湿巾80片、Ｍｉｎｉ洁肤柔湿巾10片六联包、平口型垃圾袋门店必须上架销售）是否符合要求？(单选）</t>
+  </si>
+  <si>
+    <t>56-1分值</t>
+  </si>
+  <si>
+    <t>56-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>57-1 （货架【包含风幕柜、冷冻柜、常温货架、蔬果架】清洁无灰尘、无虫尸）是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>57-1分值</t>
+  </si>
+  <si>
+    <t>57-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58-1 （会员物料（收银台跳跳卡、APP下载桌贴）是否按公司标准摆放，是否及时更新，无过期内容）是否符合要求？(单选）[照片要求：必须系统上传会员物料照片]--货架区域
+</t>
+  </si>
+  <si>
+    <t>58-1分值</t>
+  </si>
+  <si>
+    <t>58-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>59-1（档期活动布展物料：有吊旗挂放，吊旗挂放整齐，无过期内容[层高不够不能挂放门店不考核,直接给分]）是否符合要求？(单选）</t>
+  </si>
+  <si>
+    <t>59-1分值</t>
+  </si>
+  <si>
+    <t>59-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>60-1 （档期活动布展物料：跳跳卡、货架价签卡条正常使用，无过期内容）是否符合要求？(单选）</t>
+  </si>
+  <si>
+    <t>60-1分值</t>
+  </si>
+  <si>
+    <t>60-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>61-1（按照打折标准对品质下降的商品进行限时折价售卖，是否张贴临期打折标贴）洗手池是否符合要求？(单选）--货架区域</t>
+  </si>
+  <si>
+    <t>61-1分值</t>
+  </si>
+  <si>
+    <t>61-2不符合要求的原因？</t>
+  </si>
+  <si>
+    <t>62-1 门店内是否存在过期变质商品存架【生鲜霉变、常规商品过期】的情况[如有，门店当月巡检成绩计0分](单选）</t>
+  </si>
+  <si>
+    <t>62-1分值</t>
+  </si>
+  <si>
+    <t>63-1（店内无存在私设二维码（微信、支付宝）情况[如有，门店当月巡检成绩计0分]）是否符合要求？(单选）</t>
+  </si>
+  <si>
+    <t>63-1分值</t>
+  </si>
+  <si>
+    <t>63-2不符合要求的原因？</t>
+  </si>
+  <si>
     <t>&lt;jx:forEach items="${list}" var="li" varStatus="status"&gt;</t>
+  </si>
+  <si>
+    <t>${li.id}</t>
+  </si>
+  <si>
+    <t>${li.crerttime}</t>
   </si>
   <si>
     <t>${li.company}</t>
@@ -774,21 +859,624 @@
     <t>${li.th1mark}</t>
   </si>
   <si>
-    <t>${li.topic1Three}</t>
-  </si>
-  <si>
-    <t>${li.th1sorce}</t>
+    <t>${li.topic1Two}</t>
+  </si>
+  <si>
+    <t>${li.topic1Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic2One}</t>
+  </si>
+  <si>
+    <t>${li.th2mark}</t>
+  </si>
+  <si>
+    <t>${li.topic2Two}</t>
+  </si>
+  <si>
+    <t>${li.topic2Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic3One}</t>
+  </si>
+  <si>
+    <t>${li.th3mark}</t>
+  </si>
+  <si>
+    <t>${li.topic3Two}</t>
+  </si>
+  <si>
+    <t>${li.topic4One}</t>
+  </si>
+  <si>
+    <t>${li.th4mark}</t>
+  </si>
+  <si>
+    <t>${li.topic4Two}</t>
+  </si>
+  <si>
+    <t>${li.topic5One}</t>
+  </si>
+  <si>
+    <t>${li.th5mark}</t>
+  </si>
+  <si>
+    <t>${li.topic5Two}</t>
+  </si>
+  <si>
+    <t>${li.topic6One}</t>
+  </si>
+  <si>
+    <t>${li.th6mark}</t>
+  </si>
+  <si>
+    <t>${li.topic7One}</t>
+  </si>
+  <si>
+    <t>${li.th7mark}</t>
+  </si>
+  <si>
+    <t>${li.topic7Two}</t>
+  </si>
+  <si>
+    <t>${li.topic8One}</t>
+  </si>
+  <si>
+    <t>${li.th8mark}</t>
+  </si>
+  <si>
+    <t>${li.topic8Two}</t>
+  </si>
+  <si>
+    <t>${li.topic9One}</t>
+  </si>
+  <si>
+    <t>${li.th9mark}</t>
+  </si>
+  <si>
+    <t>${li.topic9Two}</t>
   </si>
   <si>
     <t>${li.topic10One}</t>
   </si>
   <si>
+    <t>${li.th10mark}</t>
+  </si>
+  <si>
+    <t>${li.topic10Two}</t>
+  </si>
+  <si>
+    <t>${li.topic10Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic11One}</t>
+  </si>
+  <si>
+    <t>${li.th11mark}</t>
+  </si>
+  <si>
+    <t>${li.topic11Two}</t>
+  </si>
+  <si>
+    <t>${li.topic12One}</t>
+  </si>
+  <si>
+    <t>${li.th12mark}</t>
+  </si>
+  <si>
+    <t>${li.topic12Two}</t>
+  </si>
+  <si>
+    <t>${li.topic13One}</t>
+  </si>
+  <si>
+    <t>${li.th13mark}</t>
+  </si>
+  <si>
+    <t>${li.topic13Two}</t>
+  </si>
+  <si>
+    <t>${li.topic14One}</t>
+  </si>
+  <si>
+    <t>${li.th14mark}</t>
+  </si>
+  <si>
+    <t>${li.topic14Two}</t>
+  </si>
+  <si>
+    <t>${li.topic14Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic15One}</t>
+  </si>
+  <si>
+    <t>${li.th15mark}</t>
+  </si>
+  <si>
+    <t>${li.topic15Two}</t>
+  </si>
+  <si>
+    <t>${li.topic15Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic16One}</t>
+  </si>
+  <si>
+    <t>${li.th16mark}</t>
+  </si>
+  <si>
+    <t>${li.topic16Two}</t>
+  </si>
+  <si>
+    <t>${li.topic16Three}</t>
+  </si>
+  <si>
+    <t>${li.th16sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic16Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic17One}</t>
+  </si>
+  <si>
+    <t>${li.th17mark}</t>
+  </si>
+  <si>
+    <t>${li.topic17Two}</t>
+  </si>
+  <si>
+    <t>${li.topic17Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic18One}</t>
+  </si>
+  <si>
+    <t>${li.th18mark}</t>
+  </si>
+  <si>
+    <t>${li.topic18Two}</t>
+  </si>
+  <si>
+    <t>${li.topic19One}</t>
+  </si>
+  <si>
+    <t>${li.th19mark}</t>
+  </si>
+  <si>
+    <t>${li.topic19Two}</t>
+  </si>
+  <si>
+    <t>${li.topic19Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic20One}</t>
+  </si>
+  <si>
+    <t>${li.th20mark}</t>
+  </si>
+  <si>
+    <t>${li.topic20Two}</t>
+  </si>
+  <si>
+    <t>${li.topic20Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic21One}</t>
+  </si>
+  <si>
+    <t>${li.th21mark}</t>
+  </si>
+  <si>
+    <t>${li.topic21Two}</t>
+  </si>
+  <si>
+    <t>${li.topic21Fraction}</t>
+  </si>
+  <si>
     <t>${li.topic22One}</t>
   </si>
   <si>
     <t>${li.th22mark}</t>
   </si>
   <si>
+    <t>${li.topic22Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic23One}</t>
+  </si>
+  <si>
+    <t>${li.th23mark}</t>
+  </si>
+  <si>
+    <t>${li.topic24One}</t>
+  </si>
+  <si>
+    <t>${li.th24mark}</t>
+  </si>
+  <si>
+    <t>${li.topic24Two}</t>
+  </si>
+  <si>
+    <t>${li.topic25One}</t>
+  </si>
+  <si>
+    <t>${li.th25mark}</t>
+  </si>
+  <si>
+    <t>${li.topic25Two}</t>
+  </si>
+  <si>
+    <t>${li.topic26One}</t>
+  </si>
+  <si>
+    <t>${li.th26mark}</t>
+  </si>
+  <si>
+    <t>${li.topic26Two}</t>
+  </si>
+  <si>
+    <t>${li.topic27One}</t>
+  </si>
+  <si>
+    <t>${li.th27mark}</t>
+  </si>
+  <si>
+    <t>${li.topic27Two}</t>
+  </si>
+  <si>
+    <t>${li.topic27Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic28One}</t>
+  </si>
+  <si>
+    <t>${li.th28mark}</t>
+  </si>
+  <si>
+    <t>${li.topic28Two}</t>
+  </si>
+  <si>
+    <t>${li.topic29One}</t>
+  </si>
+  <si>
+    <t>${li.th29mark}</t>
+  </si>
+  <si>
+    <t>${li.topic29Two}</t>
+  </si>
+  <si>
+    <t>${li.topic29Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic30One}</t>
+  </si>
+  <si>
+    <t>${li.th30mark}</t>
+  </si>
+  <si>
+    <t>${li.topic30Two}</t>
+  </si>
+  <si>
+    <t>${li.topic30Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic31One}</t>
+  </si>
+  <si>
+    <t>${li.th31mark}</t>
+  </si>
+  <si>
+    <t>${li.topic31Two}</t>
+  </si>
+  <si>
+    <t>${li.topic31Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic32One}</t>
+  </si>
+  <si>
+    <t>${li.th32mark}</t>
+  </si>
+  <si>
+    <t>${li.topic32Two}</t>
+  </si>
+  <si>
+    <t>${li.topic33One}</t>
+  </si>
+  <si>
+    <t>${li.th33mark}</t>
+  </si>
+  <si>
+    <t>${li.topic33Two}</t>
+  </si>
+  <si>
+    <t>${li.topic33Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic34One}</t>
+  </si>
+  <si>
+    <t>${li.th34mark}</t>
+  </si>
+  <si>
+    <t>${li.topic34Two}</t>
+  </si>
+  <si>
+    <t>${li.topic34Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic35One}</t>
+  </si>
+  <si>
+    <t>${li.th35mark}</t>
+  </si>
+  <si>
+    <t>${li.topic35Two}</t>
+  </si>
+  <si>
+    <t>${li.topic35Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic36One}</t>
+  </si>
+  <si>
+    <t>${li.th36mark}</t>
+  </si>
+  <si>
+    <t>${li.topic36Two}</t>
+  </si>
+  <si>
+    <t>${li.topic36Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic37One}</t>
+  </si>
+  <si>
+    <t>${li.th37mark}</t>
+  </si>
+  <si>
+    <t>${li.topic37Two}</t>
+  </si>
+  <si>
+    <t>${li.topic37Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic38One}</t>
+  </si>
+  <si>
+    <t>${li.th38mark}</t>
+  </si>
+  <si>
+    <t>${li.topic39One}</t>
+  </si>
+  <si>
+    <t>${li.th39mark}</t>
+  </si>
+  <si>
+    <t>${li.topic39Two}</t>
+  </si>
+  <si>
+    <t>${li.topic40One}</t>
+  </si>
+  <si>
+    <t>${li.th40mark}</t>
+  </si>
+  <si>
+    <t>${li.topic40Two}</t>
+  </si>
+  <si>
+    <t>${li.topic40Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic41One}</t>
+  </si>
+  <si>
+    <t>${li.th41mark}</t>
+  </si>
+  <si>
+    <t>${li.topic41Two}</t>
+  </si>
+  <si>
+    <t>${li.topic42One}</t>
+  </si>
+  <si>
+    <t>${li.th42mark}</t>
+  </si>
+  <si>
+    <t>${li.topic42Two}</t>
+  </si>
+  <si>
+    <t>${li.topic43One}</t>
+  </si>
+  <si>
+    <t>${li.th43mark}</t>
+  </si>
+  <si>
+    <t>${li.topic43Two}</t>
+  </si>
+  <si>
+    <t>${li.th44mark}</t>
+  </si>
+  <si>
+    <t>}${li.topic44Two}</t>
+  </si>
+  <si>
+    <t>${li.topic45One}</t>
+  </si>
+  <si>
+    <t>${li.th45mark}</t>
+  </si>
+  <si>
+    <t>${li.topic45Two}</t>
+  </si>
+  <si>
+    <t>${li.topic46One}</t>
+  </si>
+  <si>
+    <t>${li.th46mark}</t>
+  </si>
+  <si>
+    <t>${li.topic47One}</t>
+  </si>
+  <si>
+    <t>${li.th47mark}</t>
+  </si>
+  <si>
+    <t>${li.topic47Two}</t>
+  </si>
+  <si>
+    <t>${li.topic48One}</t>
+  </si>
+  <si>
+    <t>${li.th48mark}</t>
+  </si>
+  <si>
+    <t>${li.topic48Two}</t>
+  </si>
+  <si>
+    <t>${li.topic48Three}</t>
+  </si>
+  <si>
+    <t>${li.th48sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic49One}</t>
+  </si>
+  <si>
+    <t>${li.th49mark}</t>
+  </si>
+  <si>
+    <t>${li.topic49Two}</t>
+  </si>
+  <si>
+    <t>${li.topic50One}</t>
+  </si>
+  <si>
+    <t>${li.th50mark}</t>
+  </si>
+  <si>
+    <t>${li.topic50Two}</t>
+  </si>
+  <si>
+    <t>${li.topic51One}</t>
+  </si>
+  <si>
+    <t>${li.th51mark}</t>
+  </si>
+  <si>
+    <t>${li.topic51Two}</t>
+  </si>
+  <si>
+    <t>${li.topic52One}</t>
+  </si>
+  <si>
+    <t>${li.th52mark}</t>
+  </si>
+  <si>
+    <t>${li.topic52Two}</t>
+  </si>
+  <si>
+    <t>${li.topic53One}</t>
+  </si>
+  <si>
+    <t>${li.th53mark}</t>
+  </si>
+  <si>
+    <t>${li.topic53Two}</t>
+  </si>
+  <si>
+    <t>${li.topic54One}</t>
+  </si>
+  <si>
+    <t>${li.th54mark}</t>
+  </si>
+  <si>
+    <t>${li.topic54Two}</t>
+  </si>
+  <si>
+    <t>${li.topic55One}</t>
+  </si>
+  <si>
+    <t>${li.th55mark}</t>
+  </si>
+  <si>
+    <t>${li.topic55Two}</t>
+  </si>
+  <si>
+    <t>${li.topic56One}</t>
+  </si>
+  <si>
+    <t>${li.th56mark}</t>
+  </si>
+  <si>
+    <t>${li.topic56Two}</t>
+  </si>
+  <si>
+    <t>${li.topic57One}</t>
+  </si>
+  <si>
+    <t>${li.th57mark}</t>
+  </si>
+  <si>
+    <t>${li.topic57Two}</t>
+  </si>
+  <si>
+    <t>${li.topic58One}</t>
+  </si>
+  <si>
+    <t>${li.th58mark}</t>
+  </si>
+  <si>
+    <t>${li.topic58Two}</t>
+  </si>
+  <si>
+    <t>${li.topic59One}</t>
+  </si>
+  <si>
+    <t>${li.th59mark}</t>
+  </si>
+  <si>
+    <t>${li.topic59Two}</t>
+  </si>
+  <si>
+    <t>${li.topic60One}</t>
+  </si>
+  <si>
+    <t>${li.th60mark}</t>
+  </si>
+  <si>
+    <t>${li.topic60Two}</t>
+  </si>
+  <si>
+    <t>${li.topic61One}</t>
+  </si>
+  <si>
+    <t>${li.th61mark}</t>
+  </si>
+  <si>
+    <t>${li.topic61Two}</t>
+  </si>
+  <si>
+    <t>${li.topic62One}</t>
+  </si>
+  <si>
+    <t>${li.th62mark}</t>
+  </si>
+  <si>
+    <t>${li.topic63One}</t>
+  </si>
+  <si>
+    <t>${li.th63mark}</t>
+  </si>
+  <si>
+    <t>${li.topic63Two}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
     <t>${li.topic22Two}</t>
   </si>
   <si>
@@ -798,755 +1486,23 @@
     <t>${li.th22sorce}</t>
   </si>
   <si>
-    <t>${li.topic22Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic30One}</t>
-  </si>
-  <si>
-    <t>${li.th30mark}</t>
-  </si>
-  <si>
-    <t>${li.topic30Two}</t>
-  </si>
-  <si>
     <t>${li.topic30Three}</t>
   </si>
   <si>
     <t>${li.th30sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic30Fraction}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${li.crerttime}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.id}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic2One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic2Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th3mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic3One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic1Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic1Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th2mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic2Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th2sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic2Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic4One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic3Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th4mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic4Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic5One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th5mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic5Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic6One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th6mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic6Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic7One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th7mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic7Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic8One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th8mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic8Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic9Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th9mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic9Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic9One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic10Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th10mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic10Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th10sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic10Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic11One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th11mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic11Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic12One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th12mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic12Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic13One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th13mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic13Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th14mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic14One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic14Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic14Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th14sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic14Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic15One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th15mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic15Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic15Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th15sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic15Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic16One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th16mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic16Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic16Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th16sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic16Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic17One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th17mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic17Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th17sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic17Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic18One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th18mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic18Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic19One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th19mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic19Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic19Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th19sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic19Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic20One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th20mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic20Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic20Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th20sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic20Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic21One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th21mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic21Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic21Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th21sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic21Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic22One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th22mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic22Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic22Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th22sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic22Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic23One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic23Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th23mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th24mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic24Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic24One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic25One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th25mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic25Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic26One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th26mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic26Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic27One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th27mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic27Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic27Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th27sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic27Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic28One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th28mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic28Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th29mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic29One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic29Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic29Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th29sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic29Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic30One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th30mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic30Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic30Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th30sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic30Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic31One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th31mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic31Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic31Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th31sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic31Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic32One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th32mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic32Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic33One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th33mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic33Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic33Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th33sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic33Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic34One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th34mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic34Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic34Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th34sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic34Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic35One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th35mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic35Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic35Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th35sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic35Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic36One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th36mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic36Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic36Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th36sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic36Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic37One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th37mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic37Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic37Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th37sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic38One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic37Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th38mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic38Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th39mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic39Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic40One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic39One}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th40mark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic40Two}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic40Three}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.th40sorce}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${li.topic40Fraction}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,18 +1533,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1601,8 +1695,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1638,20 +1918,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1660,7 +2182,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1668,25 +2190,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1971,55 +2534,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HA4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:IA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GK1" workbookViewId="0">
-      <selection activeCell="GY8" sqref="GY8"/>
+    <sheetView tabSelected="1" topLeftCell="FO1" workbookViewId="0">
+      <selection activeCell="FZ16" sqref="FZ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="26" max="26" width="13.77734375" customWidth="1"/>
-    <col min="82" max="83" width="18.6640625" customWidth="1"/>
-    <col min="87" max="87" width="13.109375" customWidth="1"/>
-    <col min="107" max="107" width="15.33203125" customWidth="1"/>
-    <col min="108" max="109" width="14.33203125" customWidth="1"/>
-    <col min="114" max="114" width="15.33203125" customWidth="1"/>
-    <col min="120" max="120" width="14" customWidth="1"/>
-    <col min="126" max="126" width="17.6640625" customWidth="1"/>
-    <col min="127" max="127" width="13.44140625" customWidth="1"/>
-    <col min="128" max="128" width="11.44140625" customWidth="1"/>
-    <col min="129" max="129" width="13" customWidth="1"/>
-    <col min="130" max="130" width="13.44140625" customWidth="1"/>
-    <col min="131" max="131" width="13" customWidth="1"/>
-    <col min="141" max="141" width="13.33203125" customWidth="1"/>
-    <col min="142" max="142" width="13.44140625" customWidth="1"/>
-    <col min="144" max="144" width="19.6640625" customWidth="1"/>
-    <col min="145" max="145" width="15.109375" customWidth="1"/>
-    <col min="153" max="153" width="20.88671875" customWidth="1"/>
-    <col min="159" max="159" width="14.6640625" customWidth="1"/>
-    <col min="164" max="164" width="13.88671875" customWidth="1"/>
-    <col min="165" max="165" width="19.109375" customWidth="1"/>
-    <col min="174" max="174" width="22.21875" customWidth="1"/>
-    <col min="180" max="180" width="23.88671875" customWidth="1"/>
-    <col min="185" max="185" width="16.88671875" customWidth="1"/>
-    <col min="186" max="186" width="19.77734375" customWidth="1"/>
-    <col min="191" max="191" width="14.44140625" customWidth="1"/>
-    <col min="192" max="192" width="21" customWidth="1"/>
-    <col min="198" max="198" width="24" customWidth="1"/>
-    <col min="201" max="201" width="20" customWidth="1"/>
-    <col min="204" max="204" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="14" max="14" width="12.1111111111111" customWidth="1"/>
+    <col min="26" max="26" width="13.7777777777778" customWidth="1"/>
+    <col min="72" max="73" width="18.6666666666667" customWidth="1"/>
+    <col min="75" max="75" width="13.1111111111111" customWidth="1"/>
+    <col min="92" max="92" width="15.3333333333333" customWidth="1"/>
+    <col min="93" max="94" width="14.3333333333333" customWidth="1"/>
+    <col min="97" max="97" width="15.3333333333333" customWidth="1"/>
+    <col min="101" max="101" width="14" customWidth="1"/>
+    <col min="104" max="104" width="17.6666666666667" customWidth="1"/>
+    <col min="105" max="105" width="13.4444444444444" customWidth="1"/>
+    <col min="106" max="106" width="13" customWidth="1"/>
+    <col min="107" max="107" width="13.4444444444444" customWidth="1"/>
+    <col min="108" max="108" width="13" customWidth="1"/>
+    <col min="119" max="119" width="19.6666666666667" customWidth="1"/>
+    <col min="120" max="120" width="15.1111111111111" customWidth="1"/>
+    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
+    <col min="130" max="130" width="14.6666666666667" customWidth="1"/>
+    <col min="133" max="133" width="13.8888888888889" customWidth="1"/>
+    <col min="134" max="134" width="19.1111111111111" customWidth="1"/>
+    <col min="141" max="141" width="22.2222222222222" customWidth="1"/>
+    <col min="145" max="145" width="23.8888888888889" customWidth="1"/>
+    <col min="148" max="148" width="16.8888888888889" customWidth="1"/>
+    <col min="149" max="149" width="19.7777777777778" customWidth="1"/>
+    <col min="152" max="152" width="14.4444444444444" customWidth="1"/>
+    <col min="153" max="153" width="21" customWidth="1"/>
+    <col min="157" max="157" width="24" customWidth="1"/>
+    <col min="159" max="159" width="20" customWidth="1"/>
+    <col min="162" max="162" width="25" customWidth="1"/>
+    <col min="166" max="166" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:209" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" ht="58" customHeight="1" spans="1:235">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2107,31 +2668,31 @@
       <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="6" t="s">
@@ -2140,121 +2701,121 @@
       <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BO1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BR1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BS1" s="7" t="s">
         <v>70</v>
       </c>
       <c r="BT1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BU1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BV1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="5" t="s">
         <v>75</v>
       </c>
       <c r="BY1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CA1" s="5" t="s">
         <v>78</v>
       </c>
       <c r="CB1" s="6" t="s">
@@ -2263,1093 +2824,1250 @@
       <c r="CC1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CD1" s="5" t="s">
         <v>81</v>
       </c>
       <c r="CE1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CH1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CI1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CK1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CN1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CO1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CP1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="CQ1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CR1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CS1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CT1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="CU1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CV1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="CW1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="CX1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="6" t="s">
+      <c r="CY1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="6" t="s">
+      <c r="DA1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DB1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="8" t="s">
+      <c r="DC1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="6" t="s">
+      <c r="DD1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="6" t="s">
+      <c r="DE1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DF1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="6" t="s">
+      <c r="DG1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DH1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="DI1" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="DJ1" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="DK1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DL1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="6" t="s">
+      <c r="DM1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="DN1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DO1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DP1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="8" t="s">
+      <c r="DQ1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="8" t="s">
+      <c r="DR1" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="DS1" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="DT1" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DU1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="8" t="s">
+      <c r="DV1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="8" t="s">
+      <c r="DW1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="8" t="s">
+      <c r="DX1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="8" t="s">
+      <c r="DY1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="8" t="s">
+      <c r="DZ1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="8" t="s">
+      <c r="EA1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="8" t="s">
+      <c r="EB1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="8" t="s">
+      <c r="EC1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="8" t="s">
+      <c r="ED1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="8" t="s">
+      <c r="EE1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="8" t="s">
+      <c r="EF1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="6" t="s">
+      <c r="EG1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="8" t="s">
+      <c r="EH1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="6" t="s">
+      <c r="EI1" s="6" t="s">
         <v>138</v>
       </c>
+      <c r="EJ1" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="EK1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EL1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="6" t="s">
+      <c r="EM1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="8" t="s">
+      <c r="EN1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="6" t="s">
+      <c r="EO1" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="EP1" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="EQ1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="ER1" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="ES1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="ET1" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="EU1" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EV1" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EW1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="8" t="s">
         <v>152</v>
       </c>
+      <c r="EX1" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="EY1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="EZ1" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="FA1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="FB1" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="FC1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="8" t="s">
         <v>158</v>
       </c>
+      <c r="FD1" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="FE1" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="FF1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="7" t="s">
+      <c r="FG1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="6" t="s">
+      <c r="FH1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="8" t="s">
+      <c r="FI1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="6" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="6" t="s">
+      <c r="FK1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="8" t="s">
+      <c r="FL1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="6" t="s">
+      <c r="FM1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="6" t="s">
+      <c r="FN1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="6" t="s">
+      <c r="FO1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="7" t="s">
+      <c r="FP1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="6" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="8" t="s">
+      <c r="FR1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="6" t="s">
+      <c r="FS1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="6" t="s">
+      <c r="FT1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="6" t="s">
+      <c r="FU1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="7" t="s">
+      <c r="FV1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="6" t="s">
+      <c r="FW1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="8" t="s">
+      <c r="FX1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="6" t="s">
+      <c r="FY1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="6" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="6" t="s">
+      <c r="GA1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GB1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="6" t="s">
+      <c r="GC1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GD1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="6" t="s">
+      <c r="GE1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="6" t="s">
+      <c r="GF1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="6" t="s">
+      <c r="GG1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GH1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" s="6" t="s">
+      <c r="GI1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="GL1" s="6" t="s">
+      <c r="GK1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="GM1" s="6" t="s">
+      <c r="GL1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="GN1" s="6" t="s">
+      <c r="GM1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="GO1" s="7" t="s">
+      <c r="GN1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="GP1" s="6" t="s">
+      <c r="GO1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="GP1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GR1" s="6" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="GS1" s="6" t="s">
+      <c r="GR1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" s="8" t="s">
+      <c r="GS1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GU1" s="6" t="s">
+      <c r="GT1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GV1" s="6" t="s">
+      <c r="GU1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="GV1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="GX1" s="6" t="s">
+      <c r="GW1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GY1" s="6" t="s">
+      <c r="GX1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GZ1" s="6" t="s">
+      <c r="GY1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="HA1" s="7" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="HA1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="HB1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="HC1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="HD1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="HE1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="HF1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="HG1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="HH1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="HI1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="HK1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="HL1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="HM1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="HN1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="HO1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="HP1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="HQ1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="HR1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="HS1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="HT1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="HU1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="HV1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HX1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HY1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="HZ1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="IA1" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="2" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:209" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:235">
       <c r="A3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="EA3" s="1" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="EF3" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="EM3" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="EN3" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="EO3" s="1" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="EQ3" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="ER3" s="1" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="ES3" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="ET3" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="EU3" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="EV3" s="1" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="EW3" s="1" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="EX3" s="1" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="EY3" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="FA3" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="FC3" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="FD3" s="1" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="FE3" s="1" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="FF3" s="1" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="FG3" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="FH3" s="1" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="FI3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="FJ3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="FK3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="FL3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="FM3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="FN3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="FO3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="FP3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="FQ3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="FR3" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="FS3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="FT3" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="FU3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="FV3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="FW3" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="FX3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="FY3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="FZ3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="GA3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="FJ3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="FK3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="FL3" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="FM3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="FN3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="FO3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="FP3" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="FQ3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="FR3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="FS3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="FT3" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="FU3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="FV3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="FW3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="FX3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="FY3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="FZ3" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="GA3" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="GB3" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="GC3" s="1" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="GD3" s="1" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="GE3" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="GF3" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="GG3" s="1" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="GH3" s="1" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="GI3" s="1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="GJ3" s="1" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="GK3" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="GL3" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="GM3" s="1" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="GN3" s="1" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="GO3" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="GP3" s="1" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="GQ3" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="GR3" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="GS3" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="GT3" s="1" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="GU3" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="GV3" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="GW3" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="GX3" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="GY3" s="1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="GZ3" s="1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="HA3" s="1" t="s">
-        <v>429</v>
+        <v>441</v>
+      </c>
+      <c r="HB3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="HC3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="HD3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="HE3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="HF3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="HG3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="HH3" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="HI3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="HJ3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="HK3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="HL3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="HM3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="HN3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="HO3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="HP3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="HQ3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="HR3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="HS3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="HT3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="HU3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="HV3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="HW3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="HX3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="HY3" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="HZ3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="IA3" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="F9:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="18.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="28.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="23.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="14.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="21.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>239</v>
+        <v>469</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>241</v>
+        <v>471</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>245</v>
+        <v>362</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>246</v>
+        <v>472</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>247</v>
+        <v>473</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>248</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="6" r:id="rId1"/>
@@ -15,12 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="480">
   <si>
     <t>提交id</t>
   </si>
   <si>
     <t>提交时间</t>
+  </si>
+  <si>
+    <t>门店申诉</t>
+  </si>
+  <si>
+    <t>总公司批复</t>
+  </si>
+  <si>
+    <t>审核人员回复</t>
   </si>
   <si>
     <t>子公司</t>
@@ -755,6 +764,15 @@
     <t>${li.crerttime}</t>
   </si>
   <si>
+    <t>${li.qcheck}</t>
+  </si>
+  <si>
+    <t>${li.qchecksn}</t>
+  </si>
+  <si>
+    <t>${li.qcheckinput}</t>
+  </si>
+  <si>
     <t>${li.company}</t>
   </si>
   <si>
@@ -767,36 +785,7 @@
     <t>${li.address}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${li.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>daqu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>${li.daqu}</t>
   </si>
   <si>
     <t>${li.pianqu}</t>
@@ -1497,9 +1486,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1540,26 +1529,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1571,23 +1545,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1603,7 +1568,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,14 +1576,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,9 +1603,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,6 +1624,35 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -1676,11 +1670,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1697,31 +1686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,13 +1704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1746,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,13 +1800,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,19 +1842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,67 +1854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1919,6 +1908,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1930,15 +1939,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1973,26 +1973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2016,16 +1996,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2034,136 +2023,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2540,47 +2529,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IA4"/>
+  <dimension ref="A1:ID4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FO1" workbookViewId="0">
-      <selection activeCell="FZ16" sqref="FZ16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="12.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="13.7777777777778" customWidth="1"/>
-    <col min="72" max="73" width="18.6666666666667" customWidth="1"/>
-    <col min="75" max="75" width="13.1111111111111" customWidth="1"/>
-    <col min="92" max="92" width="15.3333333333333" customWidth="1"/>
-    <col min="93" max="94" width="14.3333333333333" customWidth="1"/>
-    <col min="97" max="97" width="15.3333333333333" customWidth="1"/>
-    <col min="101" max="101" width="14" customWidth="1"/>
-    <col min="104" max="104" width="17.6666666666667" customWidth="1"/>
-    <col min="105" max="105" width="13.4444444444444" customWidth="1"/>
-    <col min="106" max="106" width="13" customWidth="1"/>
-    <col min="107" max="107" width="13.4444444444444" customWidth="1"/>
-    <col min="108" max="108" width="13" customWidth="1"/>
-    <col min="119" max="119" width="19.6666666666667" customWidth="1"/>
-    <col min="120" max="120" width="15.1111111111111" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="130" max="130" width="14.6666666666667" customWidth="1"/>
-    <col min="133" max="133" width="13.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="19.1111111111111" customWidth="1"/>
-    <col min="141" max="141" width="22.2222222222222" customWidth="1"/>
-    <col min="145" max="145" width="23.8888888888889" customWidth="1"/>
-    <col min="148" max="148" width="16.8888888888889" customWidth="1"/>
-    <col min="149" max="149" width="19.7777777777778" customWidth="1"/>
-    <col min="152" max="152" width="14.4444444444444" customWidth="1"/>
-    <col min="153" max="153" width="21" customWidth="1"/>
-    <col min="157" max="157" width="24" customWidth="1"/>
-    <col min="159" max="159" width="20" customWidth="1"/>
-    <col min="162" max="162" width="25" customWidth="1"/>
-    <col min="166" max="166" width="17.3333333333333" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
+    <col min="17" max="17" width="12.1111111111111" customWidth="1"/>
+    <col min="29" max="29" width="13.7777777777778" customWidth="1"/>
+    <col min="75" max="76" width="18.6666666666667" customWidth="1"/>
+    <col min="78" max="78" width="13.1111111111111" customWidth="1"/>
+    <col min="95" max="95" width="15.3333333333333" customWidth="1"/>
+    <col min="96" max="97" width="14.3333333333333" customWidth="1"/>
+    <col min="100" max="100" width="15.3333333333333" customWidth="1"/>
+    <col min="104" max="104" width="14" customWidth="1"/>
+    <col min="107" max="107" width="17.6666666666667" customWidth="1"/>
+    <col min="108" max="108" width="13.4444444444444" customWidth="1"/>
+    <col min="109" max="109" width="13" customWidth="1"/>
+    <col min="110" max="110" width="13.4444444444444" customWidth="1"/>
+    <col min="111" max="111" width="13" customWidth="1"/>
+    <col min="122" max="122" width="19.6666666666667" customWidth="1"/>
+    <col min="123" max="123" width="15.1111111111111" customWidth="1"/>
+    <col min="129" max="129" width="20.8888888888889" customWidth="1"/>
+    <col min="133" max="133" width="14.6666666666667" customWidth="1"/>
+    <col min="136" max="136" width="13.8888888888889" customWidth="1"/>
+    <col min="137" max="137" width="19.1111111111111" customWidth="1"/>
+    <col min="144" max="144" width="22.2222222222222" customWidth="1"/>
+    <col min="148" max="148" width="23.8888888888889" customWidth="1"/>
+    <col min="151" max="151" width="16.8888888888889" customWidth="1"/>
+    <col min="152" max="152" width="19.7777777777778" customWidth="1"/>
+    <col min="155" max="155" width="14.4444444444444" customWidth="1"/>
+    <col min="156" max="156" width="21" customWidth="1"/>
+    <col min="160" max="160" width="24" customWidth="1"/>
+    <col min="162" max="162" width="20" customWidth="1"/>
+    <col min="165" max="165" width="25" customWidth="1"/>
+    <col min="169" max="169" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="58" customHeight="1" spans="1:235">
+    <row r="1" s="2" customFormat="1" ht="58" customHeight="1" spans="1:238">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2656,40 +2645,40 @@
       <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="6" t="s">
@@ -2701,13 +2690,13 @@
       <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AR1" s="5" t="s">
@@ -2719,10 +2708,10 @@
       <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
       <c r="AW1" s="5" t="s">
@@ -2752,16 +2741,16 @@
       <c r="BE1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="7" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" s="5" t="s">
@@ -2770,7 +2759,7 @@
       <c r="BK1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="BM1" s="5" t="s">
@@ -2779,7 +2768,7 @@
       <c r="BN1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="6" t="s">
         <v>66</v>
       </c>
       <c r="BP1" s="5" t="s">
@@ -2791,28 +2780,28 @@
       <c r="BR1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BS1" s="5" t="s">
         <v>70</v>
       </c>
       <c r="BT1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BU1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BY1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>77</v>
       </c>
       <c r="CA1" s="5" t="s">
@@ -2821,7 +2810,7 @@
       <c r="CB1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CC1" s="5" t="s">
         <v>80</v>
       </c>
       <c r="CD1" s="5" t="s">
@@ -2830,19 +2819,19 @@
       <c r="CE1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CF1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CG1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CH1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CI1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>87</v>
       </c>
       <c r="CK1" s="5" t="s">
@@ -2854,37 +2843,37 @@
       <c r="CM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CN1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CO1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CP1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CR1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CS1" s="6" t="s">
         <v>96</v>
       </c>
       <c r="CT1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CU1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CV1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CW1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="CX1" s="6" t="s">
         <v>101</v>
       </c>
       <c r="CY1" s="7" t="s">
@@ -2896,7 +2885,7 @@
       <c r="DA1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DB1" s="7" t="s">
         <v>105</v>
       </c>
       <c r="DC1" s="5" t="s">
@@ -2923,25 +2912,25 @@
       <c r="DJ1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="6" t="s">
+      <c r="DK1" s="5" t="s">
         <v>114</v>
       </c>
       <c r="DL1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="6" t="s">
+      <c r="DM1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="DN1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="6" t="s">
+      <c r="DO1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DP1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="6" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>120</v>
       </c>
       <c r="DR1" s="6" t="s">
@@ -2953,40 +2942,40 @@
       <c r="DT1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="7" t="s">
+      <c r="DU1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="6" t="s">
+      <c r="DV1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="DW1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="6" t="s">
+      <c r="DX1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="DY1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="6" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="5" t="s">
+      <c r="EA1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="6" t="s">
+      <c r="EB1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="EC1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="6" t="s">
+      <c r="ED1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EE1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="6" t="s">
+      <c r="EF1" s="7" t="s">
         <v>135</v>
       </c>
       <c r="EG1" s="6" t="s">
@@ -2998,70 +2987,70 @@
       <c r="EI1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="EJ1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="6" t="s">
+      <c r="EK1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="5" t="s">
+      <c r="EL1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="6" t="s">
+      <c r="EM1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="EN1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="6" t="s">
+      <c r="EO1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="5" t="s">
+      <c r="EP1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="6" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="7" t="s">
+      <c r="ER1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="6" t="s">
+      <c r="ES1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="5" t="s">
+      <c r="ET1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="6" t="s">
+      <c r="EU1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="7" t="s">
+      <c r="EV1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="6" t="s">
+      <c r="EW1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="5" t="s">
+      <c r="EX1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="6" t="s">
+      <c r="EY1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="7" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="6" t="s">
+      <c r="FA1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="5" t="s">
+      <c r="FB1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="6" t="s">
+      <c r="FC1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="5" t="s">
+      <c r="FD1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="6" t="s">
+      <c r="FE1" s="5" t="s">
         <v>160</v>
       </c>
       <c r="FF1" s="6" t="s">
@@ -3073,16 +3062,16 @@
       <c r="FH1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="7" t="s">
+      <c r="FI1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FJ1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FK1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FL1" s="7" t="s">
         <v>167</v>
       </c>
       <c r="FM1" s="2" t="s">
@@ -3285,720 +3274,738 @@
       </c>
       <c r="IA1" s="2" t="s">
         <v>234</v>
+      </c>
+      <c r="IB1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="IC1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="ID1" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:235">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:238">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="T3" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="U3" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC3" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="Z3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="AD3" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="EA3" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="EF3" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="EM3" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="EN3" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="EO3" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="EQ3" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="ER3" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="ES3" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="ET3" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="EU3" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="EV3" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="EW3" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="EX3" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="EY3" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="FA3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="FB3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="FC3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="FD3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="FE3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="FF3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="FG3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="FH3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="FI3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="FJ3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="FK3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="FL3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="FM3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="FN3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="FO3" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="FP3" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="FQ3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="FR3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="FS3" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="FT3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="FU3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="FV3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="FW3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="FX3" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="FY3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="FZ3" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="GA3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="GB3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="GC3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="GD3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="FB3" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="FC3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="FD3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="FE3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="FF3" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="FG3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="FH3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="FI3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="FJ3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="FK3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="FL3" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="FM3" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="FN3" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="FO3" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="FP3" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="FQ3" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="FR3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="FS3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="FT3" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="FU3" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="FV3" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="FW3" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="FX3" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="FY3" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="FZ3" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="GA3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="GB3" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="GC3" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="GD3" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="GE3" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="GF3" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="GG3" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="GH3" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="GI3" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="GJ3" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="GK3" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="GL3" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="GM3" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="GN3" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="GO3" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="GP3" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="GQ3" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="GR3" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="GS3" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="GT3" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="GU3" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="GV3" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="GW3" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="GX3" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="GY3" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="GZ3" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="HA3" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="HB3" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="HC3" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="HD3" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="HE3" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="HF3" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="HG3" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="HH3" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="HI3" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="HJ3" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="HK3" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="HL3" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="HM3" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="HN3" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="HO3" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="HP3" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="HQ3" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="HR3" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="HS3" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="HT3" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="HU3" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="HV3" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="HW3" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="HX3" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="HY3" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="HZ3" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="IA3" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
+      </c>
+      <c r="IB3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="IC3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="ID3" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4028,42 +4035,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="466">
   <si>
     <t>提交id</t>
   </si>
@@ -113,10 +113,6 @@
     <t>1-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>第1题得分
-[如系统可计算，就直接计算出分数]</t>
-  </si>
-  <si>
     <t>2-1（店外招牌干净整洁、有无破损；招牌灯正常开启/关闭）是否符合要求？(单选）----店外区域选）</t>
   </si>
   <si>
@@ -126,10 +122,6 @@
     <t>2-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>第2题
-[如系统可计算，就直接计算出分数]</t>
-  </si>
-  <si>
     <t>3-1（店门玻璃、橱窗玻璃干净明亮、清洁无污渍）是否符合要求？(单选）--店外区域</t>
   </si>
   <si>
@@ -199,10 +191,6 @@
     <t>10-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>第10题
-[如系统可计算，就直接计算出分数]</t>
-  </si>
-  <si>
     <t>11-1（店内天花板无蜘蛛网，地面干净整洁【下雨天不考评地板污渍】；地面湿滑，门店有将 “小心地滑” 指示牌立出）是否符合要求？(单选）--卖场周边区域</t>
   </si>
   <si>
@@ -239,10 +227,6 @@
     <t>14-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>第14题
-[如系统可计算，就直接计算出分数]</t>
-  </si>
-  <si>
     <t>15-1（苏宁邮局：1、邮局内不得摆放小店货物（货物，纸箱，杂物等）；2、邮局是否有“苏宁邮局”四个字背景墙）是否符合要求？--卖场周边区域</t>
   </si>
   <si>
@@ -252,10 +236,6 @@
     <t>15-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>第15题
-[如系统可计算，就直接计算出分数]</t>
-  </si>
-  <si>
     <t>16-1（顾客进店时，店员员工对所有进店顾客喊“欢迎光临苏宁小店”）是否符合要求？(单选）--柜台服务</t>
   </si>
   <si>
@@ -263,16 +243,6 @@
   </si>
   <si>
     <t>16-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>16-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>16-3得分</t>
-  </si>
-  <si>
-    <t>第16题
-[如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
     <t>17-1顾客购物时（当该顾客选择商品时，推荐顾客办理超级会员）是否符合要求？--柜台服务 [话术：这款商品是会员价商品，现在办理苏宁小店超级会员，可以省×块钱。苏宁小店超级会员，每月只需9.9元可立享会员专享价，还有劲爆商品供您挑选。</t>
@@ -297,6 +267,10 @@
     <t>18-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
+    <t>第18题
+[如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
     <t>19-1顾客支付时（顾客支付时，店员是否有说“您好，总计消费XX钱”，在顾客购2件及以上商品提醒【您是否需要购物袋】，若顾客购买的商品中有会员价商品，是否推荐办理超级会员）是否符合要求？--柜台服务 [话术：“您购买的商品中有会员价商品，您可以9.9元办理一个月会员，立享会员价”</t>
   </si>
   <si>
@@ -851,9 +825,6 @@
     <t>${li.topic1Two}</t>
   </si>
   <si>
-    <t>${li.topic1Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic2One}</t>
   </si>
   <si>
@@ -863,9 +834,6 @@
     <t>${li.topic2Two}</t>
   </si>
   <si>
-    <t>${li.topic2Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic3One}</t>
   </si>
   <si>
@@ -935,9 +903,6 @@
     <t>${li.topic10Two}</t>
   </si>
   <si>
-    <t>${li.topic10Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic11One}</t>
   </si>
   <si>
@@ -974,9 +939,6 @@
     <t>${li.topic14Two}</t>
   </si>
   <si>
-    <t>${li.topic14Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic15One}</t>
   </si>
   <si>
@@ -986,9 +948,6 @@
     <t>${li.topic15Two}</t>
   </si>
   <si>
-    <t>${li.topic15Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic16One}</t>
   </si>
   <si>
@@ -998,15 +957,6 @@
     <t>${li.topic16Two}</t>
   </si>
   <si>
-    <t>${li.topic16Three}</t>
-  </si>
-  <si>
-    <t>${li.th16sorce}</t>
-  </si>
-  <si>
-    <t>${li.topic16Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic17One}</t>
   </si>
   <si>
@@ -1028,6 +978,9 @@
     <t>${li.topic18Two}</t>
   </si>
   <si>
+    <t>${li.topic18Fraction}</t>
+  </si>
+  <si>
     <t>${li.topic19One}</t>
   </si>
   <si>
@@ -1328,7 +1281,7 @@
     <t>${li.topic48Three}</t>
   </si>
   <si>
-    <t>${li.th48sorce}</t>
+    <t>${li.topic48Fraction}</t>
   </si>
   <si>
     <t>${li.topic49One}</t>
@@ -1529,21 +1482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1551,32 +1489,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,31 +1518,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1634,25 +1548,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -1663,9 +1571,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,7 +1639,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,175 +1819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,26 +1861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1939,36 +1872,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,8 +1894,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2005,154 +1934,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2529,10 +2482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:ID4"/>
+  <dimension ref="A1:HW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="FB1" workbookViewId="0">
+      <selection activeCell="FO15" sqref="FO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -2540,36 +2493,35 @@
     <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
     <col min="17" max="17" width="12.1111111111111" customWidth="1"/>
     <col min="29" max="29" width="13.7777777777778" customWidth="1"/>
-    <col min="75" max="76" width="18.6666666666667" customWidth="1"/>
-    <col min="78" max="78" width="13.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="15.3333333333333" customWidth="1"/>
-    <col min="96" max="97" width="14.3333333333333" customWidth="1"/>
-    <col min="100" max="100" width="15.3333333333333" customWidth="1"/>
-    <col min="104" max="104" width="14" customWidth="1"/>
-    <col min="107" max="107" width="17.6666666666667" customWidth="1"/>
-    <col min="108" max="108" width="13.4444444444444" customWidth="1"/>
-    <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="13.4444444444444" customWidth="1"/>
-    <col min="111" max="111" width="13" customWidth="1"/>
-    <col min="122" max="122" width="19.6666666666667" customWidth="1"/>
-    <col min="123" max="123" width="15.1111111111111" customWidth="1"/>
-    <col min="129" max="129" width="20.8888888888889" customWidth="1"/>
-    <col min="133" max="133" width="14.6666666666667" customWidth="1"/>
-    <col min="136" max="136" width="13.8888888888889" customWidth="1"/>
-    <col min="137" max="137" width="19.1111111111111" customWidth="1"/>
-    <col min="144" max="144" width="22.2222222222222" customWidth="1"/>
-    <col min="148" max="148" width="23.8888888888889" customWidth="1"/>
-    <col min="151" max="151" width="16.8888888888889" customWidth="1"/>
-    <col min="152" max="152" width="19.7777777777778" customWidth="1"/>
-    <col min="155" max="155" width="14.4444444444444" customWidth="1"/>
-    <col min="156" max="156" width="21" customWidth="1"/>
-    <col min="160" max="160" width="24" customWidth="1"/>
-    <col min="162" max="162" width="20" customWidth="1"/>
-    <col min="165" max="165" width="25" customWidth="1"/>
-    <col min="169" max="169" width="17.3333333333333" customWidth="1"/>
+    <col min="71" max="72" width="18.6666666666667" customWidth="1"/>
+    <col min="88" max="88" width="15.3333333333333" customWidth="1"/>
+    <col min="89" max="90" width="14.3333333333333" customWidth="1"/>
+    <col min="93" max="93" width="15.3333333333333" customWidth="1"/>
+    <col min="97" max="97" width="14" customWidth="1"/>
+    <col min="100" max="100" width="17.6666666666667" customWidth="1"/>
+    <col min="101" max="101" width="13.4444444444444" customWidth="1"/>
+    <col min="102" max="102" width="13" customWidth="1"/>
+    <col min="103" max="103" width="13.4444444444444" customWidth="1"/>
+    <col min="104" max="104" width="13" customWidth="1"/>
+    <col min="115" max="115" width="19.6666666666667" customWidth="1"/>
+    <col min="116" max="116" width="15.1111111111111" customWidth="1"/>
+    <col min="122" max="122" width="20.8888888888889" customWidth="1"/>
+    <col min="126" max="126" width="14.6666666666667" customWidth="1"/>
+    <col min="129" max="129" width="13.8888888888889" customWidth="1"/>
+    <col min="130" max="130" width="19.1111111111111" customWidth="1"/>
+    <col min="137" max="137" width="22.2222222222222" customWidth="1"/>
+    <col min="141" max="141" width="23.8888888888889" customWidth="1"/>
+    <col min="144" max="144" width="16.8888888888889" customWidth="1"/>
+    <col min="145" max="145" width="19.7777777777778" customWidth="1"/>
+    <col min="148" max="148" width="14.4444444444444" customWidth="1"/>
+    <col min="149" max="149" width="21" customWidth="1"/>
+    <col min="153" max="153" width="24" customWidth="1"/>
+    <col min="155" max="155" width="20" customWidth="1"/>
+    <col min="158" max="158" width="25" customWidth="1"/>
+    <col min="162" max="162" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="58" customHeight="1" spans="1:238">
+    <row r="1" s="2" customFormat="1" ht="58" customHeight="1" spans="1:231">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2666,19 +2618,19 @@
       <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="6" t="s">
@@ -2693,7 +2645,7 @@
       <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="6" t="s">
@@ -2702,10 +2654,10 @@
       <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
       <c r="AU1" s="5" t="s">
@@ -2717,40 +2669,40 @@
       <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="6" t="s">
         <v>50</v>
       </c>
       <c r="AZ1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
       <c r="BC1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="6" t="s">
         <v>56</v>
       </c>
       <c r="BF1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" s="5" t="s">
@@ -2759,7 +2711,7 @@
       <c r="BK1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="6" t="s">
         <v>63</v>
       </c>
       <c r="BM1" s="5" t="s">
@@ -2768,7 +2720,7 @@
       <c r="BN1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BO1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="BP1" s="5" t="s">
@@ -2780,7 +2732,7 @@
       <c r="BR1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="6" t="s">
         <v>70</v>
       </c>
       <c r="BT1" s="6" t="s">
@@ -2789,34 +2741,34 @@
       <c r="BU1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BV1" s="5" t="s">
         <v>73</v>
       </c>
       <c r="BW1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BX1" s="5" t="s">
         <v>75</v>
       </c>
       <c r="BY1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>77</v>
       </c>
       <c r="CA1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CB1" s="7" t="s">
         <v>79</v>
       </c>
       <c r="CC1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CD1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CE1" s="5" t="s">
         <v>82</v>
       </c>
       <c r="CF1" s="7" t="s">
@@ -2840,43 +2792,43 @@
       <c r="CL1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CN1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CO1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CP1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CR1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CS1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CT1" s="5" t="s">
         <v>97</v>
       </c>
       <c r="CU1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CV1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="6" t="s">
+      <c r="CW1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="6" t="s">
+      <c r="CX1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CY1" s="5" t="s">
         <v>102</v>
       </c>
       <c r="CZ1" s="5" t="s">
@@ -2885,7 +2837,7 @@
       <c r="DA1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DB1" s="5" t="s">
         <v>105</v>
       </c>
       <c r="DC1" s="5" t="s">
@@ -2900,25 +2852,25 @@
       <c r="DF1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DG1" s="6" t="s">
         <v>110</v>
       </c>
       <c r="DH1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DI1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DK1" s="6" t="s">
         <v>114</v>
       </c>
       <c r="DL1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DM1" s="6" t="s">
         <v>116</v>
       </c>
       <c r="DN1" s="6" t="s">
@@ -2942,28 +2894,28 @@
       <c r="DT1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="6" t="s">
+      <c r="DU1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="DV1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="6" t="s">
+      <c r="DW1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="7" t="s">
+      <c r="DX1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="6" t="s">
+      <c r="DY1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="5" t="s">
+      <c r="DZ1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="6" t="s">
+      <c r="EA1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EB1" s="6" t="s">
         <v>131</v>
       </c>
       <c r="EC1" s="6" t="s">
@@ -2987,91 +2939,91 @@
       <c r="EI1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="6" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="5" t="s">
+      <c r="EK1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="6" t="s">
+      <c r="EL1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EM1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="6" t="s">
+      <c r="EN1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="5" t="s">
+      <c r="EO1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="6" t="s">
+      <c r="EP1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="6" t="s">
+      <c r="ER1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="5" t="s">
+      <c r="ES1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="6" t="s">
+      <c r="ET1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="7" t="s">
+      <c r="EU1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="EV1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="5" t="s">
+      <c r="EW1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EX1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="7" t="s">
+      <c r="EY1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="EZ1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="5" t="s">
+      <c r="FA1" s="6" t="s">
         <v>156</v>
       </c>
       <c r="FB1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="7" t="s">
+      <c r="FC1" s="5" t="s">
         <v>158</v>
       </c>
       <c r="FD1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="5" t="s">
+      <c r="FE1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="6" t="s">
+      <c r="FF1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="5" t="s">
+      <c r="FG1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="6" t="s">
+      <c r="FH1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="6" t="s">
+      <c r="FI1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="5" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="6" t="s">
+      <c r="FK1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="7" t="s">
+      <c r="FL1" s="2" t="s">
         <v>167</v>
       </c>
       <c r="FM1" s="2" t="s">
@@ -3262,750 +3214,708 @@
       </c>
       <c r="HW1" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="HX1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:231">
+      <c r="A3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:238">
-      <c r="A3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="N3" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="W3" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="X3" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Y3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AA3" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="AD3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="AE3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AF3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AG3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AI3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DS3" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DT3" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DU3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DV3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DW3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DX3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="DZ3" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="DX3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DY3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="EG3" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="EK3" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EO3" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="EI3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="ES3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="ET3" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="EU3" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="EV3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="EW3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="EX3" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="EY3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="EZ3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="FA3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="FB3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="FC3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="FD3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="FE3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="FF3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="FG3" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FH3" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="FB3" s="1" t="s">
+      <c r="FI3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="FC3" s="1" t="s">
+      <c r="FJ3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="FD3" s="1" t="s">
+      <c r="FK3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="FE3" s="1" t="s">
+      <c r="FL3" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="FF3" s="1" t="s">
+      <c r="FM3" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="FG3" s="1" t="s">
+      <c r="FN3" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="FH3" s="1" t="s">
+      <c r="FO3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="FP3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="FI3" s="1" t="s">
+      <c r="FQ3" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="FJ3" s="1" t="s">
+      <c r="FR3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="FK3" s="1" t="s">
+      <c r="FS3" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="FL3" s="1" t="s">
+      <c r="FT3" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="FM3" s="1" t="s">
+      <c r="FU3" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="FN3" s="1" t="s">
+      <c r="FV3" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="FO3" s="1" t="s">
+      <c r="FW3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="FX3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="FP3" s="1" t="s">
+      <c r="FY3" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="FQ3" s="1" t="s">
+      <c r="FZ3" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="FR3" s="1" t="s">
+      <c r="GA3" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="FS3" s="1" t="s">
+      <c r="GB3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="FT3" s="1" t="s">
+      <c r="GC3" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="FU3" s="1" t="s">
+      <c r="GD3" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="FV3" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="FW3" s="1" t="s">
+      <c r="GE3" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="FX3" s="1" t="s">
+      <c r="GF3" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="FY3" s="1" t="s">
+      <c r="GG3" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="FZ3" s="1" t="s">
+      <c r="GH3" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="GA3" s="1" t="s">
+      <c r="GI3" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="GB3" s="1" t="s">
+      <c r="GJ3" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="GC3" s="1" t="s">
+      <c r="GK3" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="GD3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="GE3" s="1" t="s">
+      <c r="GL3" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="GF3" s="1" t="s">
+      <c r="GM3" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="GG3" s="1" t="s">
+      <c r="GN3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="GH3" s="1" t="s">
+      <c r="GO3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="GI3" s="1" t="s">
+      <c r="GP3" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="GJ3" s="1" t="s">
+      <c r="GQ3" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="GK3" s="1" t="s">
+      <c r="GR3" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="GL3" s="1" t="s">
+      <c r="GS3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="GM3" s="1" t="s">
+      <c r="GT3" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="GN3" s="1" t="s">
+      <c r="GU3" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="GO3" s="1" t="s">
+      <c r="GV3" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="GP3" s="1" t="s">
+      <c r="GW3" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="GQ3" s="1" t="s">
+      <c r="GX3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="GR3" s="1" t="s">
+      <c r="GY3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="GS3" s="1" t="s">
+      <c r="GZ3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="GT3" s="1" t="s">
+      <c r="HA3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="GU3" s="1" t="s">
+      <c r="HB3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="GV3" s="1" t="s">
+      <c r="HC3" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="GW3" s="1" t="s">
+      <c r="HD3" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="GX3" s="1" t="s">
+      <c r="HE3" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="GY3" s="1" t="s">
+      <c r="HF3" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="GZ3" s="1" t="s">
+      <c r="HG3" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="HA3" s="1" t="s">
+      <c r="HH3" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="HB3" s="1" t="s">
+      <c r="HI3" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="HC3" s="1" t="s">
+      <c r="HJ3" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="HD3" s="1" t="s">
+      <c r="HK3" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="HE3" s="1" t="s">
+      <c r="HL3" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="HF3" s="1" t="s">
+      <c r="HM3" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="HG3" s="1" t="s">
+      <c r="HN3" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="HH3" s="1" t="s">
+      <c r="HO3" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="HI3" s="1" t="s">
+      <c r="HP3" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="HJ3" s="1" t="s">
+      <c r="HQ3" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="HK3" s="1" t="s">
+      <c r="HR3" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="HL3" s="1" t="s">
+      <c r="HS3" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="HM3" s="1" t="s">
+      <c r="HT3" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="HN3" s="1" t="s">
+      <c r="HU3" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="HO3" s="1" t="s">
+      <c r="HV3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="HP3" s="1" t="s">
+      <c r="HW3" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="HQ3" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="HR3" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="HS3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="HT3" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="HU3" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="HV3" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="HW3" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="HX3" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="HY3" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="HZ3" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="IA3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="IB3" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="IC3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="ID3" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4035,42 +3945,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/question.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="454">
   <si>
     <t>提交id</t>
   </si>
@@ -596,6 +596,10 @@
     <t>48-3得分</t>
   </si>
   <si>
+    <t>第48题
+[如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
     <t>49-1 （面包货架应陈列整齐丰满，面包品项数应高于6个，面包陈列总数量应高于12个）是否符合要求？(单选）--货架区域</t>
   </si>
   <si>
@@ -795,7 +799,7 @@
     <t>${li.money}</t>
   </si>
   <si>
-    <t>${li.weather}</t>
+    <t>${li.weatopicer}</t>
   </si>
   <si>
     <t>${li.metro}</t>
@@ -819,7 +823,7 @@
     <t>${li.topic1One}</t>
   </si>
   <si>
-    <t>${li.th1mark}</t>
+    <t>${li.topic1Fraction}</t>
   </si>
   <si>
     <t>${li.topic1Two}</t>
@@ -828,7 +832,7 @@
     <t>${li.topic2One}</t>
   </si>
   <si>
-    <t>${li.th2mark}</t>
+    <t>${li.topic2Fraction}</t>
   </si>
   <si>
     <t>${li.topic2Two}</t>
@@ -837,7 +841,7 @@
     <t>${li.topic3One}</t>
   </si>
   <si>
-    <t>${li.th3mark}</t>
+    <t>${li.topic3Fraction}</t>
   </si>
   <si>
     <t>${li.topic3Two}</t>
@@ -846,7 +850,7 @@
     <t>${li.topic4One}</t>
   </si>
   <si>
-    <t>${li.th4mark}</t>
+    <t>${li.topic4Fraction}</t>
   </si>
   <si>
     <t>${li.topic4Two}</t>
@@ -855,7 +859,7 @@
     <t>${li.topic5One}</t>
   </si>
   <si>
-    <t>${li.th5mark}</t>
+    <t>${li.topic5Fraction}</t>
   </si>
   <si>
     <t>${li.topic5Two}</t>
@@ -864,13 +868,13 @@
     <t>${li.topic6One}</t>
   </si>
   <si>
-    <t>${li.th6mark}</t>
+    <t>${li.topic6Fraction}</t>
   </si>
   <si>
     <t>${li.topic7One}</t>
   </si>
   <si>
-    <t>${li.th7mark}</t>
+    <t>${li.topic7Fraction}</t>
   </si>
   <si>
     <t>${li.topic7Two}</t>
@@ -879,7 +883,7 @@
     <t>${li.topic8One}</t>
   </si>
   <si>
-    <t>${li.th8mark}</t>
+    <t>${li.topic8Fraction}</t>
   </si>
   <si>
     <t>${li.topic8Two}</t>
@@ -888,7 +892,7 @@
     <t>${li.topic9One}</t>
   </si>
   <si>
-    <t>${li.th9mark}</t>
+    <t>${li.topic9Fraction}</t>
   </si>
   <si>
     <t>${li.topic9Two}</t>
@@ -897,7 +901,7 @@
     <t>${li.topic10One}</t>
   </si>
   <si>
-    <t>${li.th10mark}</t>
+    <t>${li.topic10Fraction}</t>
   </si>
   <si>
     <t>${li.topic10Two}</t>
@@ -906,7 +910,7 @@
     <t>${li.topic11One}</t>
   </si>
   <si>
-    <t>${li.th11mark}</t>
+    <t>${li.topic11Fraction}</t>
   </si>
   <si>
     <t>${li.topic11Two}</t>
@@ -915,7 +919,7 @@
     <t>${li.topic12One}</t>
   </si>
   <si>
-    <t>${li.th12mark}</t>
+    <t>${li.topic12Fraction}</t>
   </si>
   <si>
     <t>${li.topic12Two}</t>
@@ -924,7 +928,7 @@
     <t>${li.topic13One}</t>
   </si>
   <si>
-    <t>${li.th13mark}</t>
+    <t>${li.topic13Fraction}</t>
   </si>
   <si>
     <t>${li.topic13Two}</t>
@@ -933,7 +937,7 @@
     <t>${li.topic14One}</t>
   </si>
   <si>
-    <t>${li.th14mark}</t>
+    <t>${li.topic14Fraction}</t>
   </si>
   <si>
     <t>${li.topic14Two}</t>
@@ -942,7 +946,7 @@
     <t>${li.topic15One}</t>
   </si>
   <si>
-    <t>${li.th15mark}</t>
+    <t>${li.topic15Fraction}</t>
   </si>
   <si>
     <t>${li.topic15Two}</t>
@@ -951,7 +955,7 @@
     <t>${li.topic16One}</t>
   </si>
   <si>
-    <t>${li.th16mark}</t>
+    <t>${li.topic16Fraction}</t>
   </si>
   <si>
     <t>${li.topic16Two}</t>
@@ -960,472 +964,433 @@
     <t>${li.topic17One}</t>
   </si>
   <si>
-    <t>${li.th17mark}</t>
+    <t>${li.topic17Fraction}</t>
   </si>
   <si>
     <t>${li.topic17Two}</t>
   </si>
   <si>
-    <t>${li.topic17Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic18One}</t>
   </si>
   <si>
-    <t>${li.th18mark}</t>
+    <t>${li.topic18Fraction}</t>
   </si>
   <si>
     <t>${li.topic18Two}</t>
   </si>
   <si>
-    <t>${li.topic18Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic19One}</t>
   </si>
   <si>
-    <t>${li.th19mark}</t>
+    <t>${li.topic19Fraction}</t>
   </si>
   <si>
     <t>${li.topic19Two}</t>
   </si>
   <si>
-    <t>${li.topic19Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic20One}</t>
   </si>
   <si>
-    <t>${li.th20mark}</t>
+    <t>${li.topic20Fraction}</t>
   </si>
   <si>
     <t>${li.topic20Two}</t>
   </si>
   <si>
-    <t>${li.topic20Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic21One}</t>
   </si>
   <si>
-    <t>${li.th21mark}</t>
+    <t>${li.topic21Fraction}</t>
   </si>
   <si>
     <t>${li.topic21Two}</t>
   </si>
   <si>
-    <t>${li.topic21Fraction}</t>
-  </si>
-  <si>
     <t>${li.topic22One}</t>
   </si>
   <si>
+    <t>${li.topic22Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic23One}</t>
+  </si>
+  <si>
+    <t>${li.topic23Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic24One}</t>
+  </si>
+  <si>
+    <t>${li.topic24Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic24Two}</t>
+  </si>
+  <si>
+    <t>${li.topic25One}</t>
+  </si>
+  <si>
+    <t>${li.topic25Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic25Two}</t>
+  </si>
+  <si>
+    <t>${li.topic26One}</t>
+  </si>
+  <si>
+    <t>${li.topic26Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic26Two}</t>
+  </si>
+  <si>
+    <t>${li.topic27One}</t>
+  </si>
+  <si>
+    <t>${li.topic27Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic27Two}</t>
+  </si>
+  <si>
+    <t>${li.topic28One}</t>
+  </si>
+  <si>
+    <t>${li.topic28Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic28Two}</t>
+  </si>
+  <si>
+    <t>${li.topic29One}</t>
+  </si>
+  <si>
+    <t>${li.topic29Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic29Two}</t>
+  </si>
+  <si>
+    <t>${li.topic30One}</t>
+  </si>
+  <si>
+    <t>${li.topic30Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic30Two}</t>
+  </si>
+  <si>
+    <t>${li.topic31One}</t>
+  </si>
+  <si>
+    <t>${li.topic31Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic31Two}</t>
+  </si>
+  <si>
+    <t>${li.topic32One}</t>
+  </si>
+  <si>
+    <t>${li.topic32Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic32Two}</t>
+  </si>
+  <si>
+    <t>${li.topic33One}</t>
+  </si>
+  <si>
+    <t>${li.topic33Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic33Two}</t>
+  </si>
+  <si>
+    <t>${li.topic34One}</t>
+  </si>
+  <si>
+    <t>${li.topic34Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic34Two}</t>
+  </si>
+  <si>
+    <t>${li.topic35One}</t>
+  </si>
+  <si>
+    <t>${li.topic35Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic35Two}</t>
+  </si>
+  <si>
+    <t>${li.topic36One}</t>
+  </si>
+  <si>
+    <t>${li.topic36Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic36Two}</t>
+  </si>
+  <si>
+    <t>${li.topic37One}</t>
+  </si>
+  <si>
+    <t>${li.topic37Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic37Two}</t>
+  </si>
+  <si>
+    <t>${li.topic38One}</t>
+  </si>
+  <si>
+    <t>${li.topic38Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic39One}</t>
+  </si>
+  <si>
+    <t>${li.topic39Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic39Two}</t>
+  </si>
+  <si>
+    <t>${li.topic40One}</t>
+  </si>
+  <si>
+    <t>${li.topic40Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic40Two}</t>
+  </si>
+  <si>
+    <t>${li.topic41One}</t>
+  </si>
+  <si>
+    <t>${li.topic41Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic41Two}</t>
+  </si>
+  <si>
+    <t>${li.topic42One}</t>
+  </si>
+  <si>
+    <t>${li.topic42Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic42Two}</t>
+  </si>
+  <si>
+    <t>${li.topic43One}</t>
+  </si>
+  <si>
+    <t>${li.topic43Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic43Two}</t>
+  </si>
+  <si>
+    <t>${li.topic44Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic44Two}</t>
+  </si>
+  <si>
+    <t>${li.topic45One}</t>
+  </si>
+  <si>
+    <t>${li.topic45Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic45Two}</t>
+  </si>
+  <si>
+    <t>${li.topic46One}</t>
+  </si>
+  <si>
+    <t>${li.topic46Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic47One}</t>
+  </si>
+  <si>
+    <t>${li.topic47Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic47Two}</t>
+  </si>
+  <si>
+    <t>${li.topic48One}</t>
+  </si>
+  <si>
+    <t>${li.th48mark}</t>
+  </si>
+  <si>
+    <t>${li.topic48Two}</t>
+  </si>
+  <si>
+    <t>${li.topic48Three}</t>
+  </si>
+  <si>
+    <t>${li.th48sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic48Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic49One}</t>
+  </si>
+  <si>
+    <t>${li.topic49Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic49Two}</t>
+  </si>
+  <si>
+    <t>${li.topic50One}</t>
+  </si>
+  <si>
+    <t>${li.topic50Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic50Two}</t>
+  </si>
+  <si>
+    <t>${li.topic51One}</t>
+  </si>
+  <si>
+    <t>${li.topic51Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic51Two}</t>
+  </si>
+  <si>
+    <t>${li.topic52One}</t>
+  </si>
+  <si>
+    <t>${li.topic52Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic52Two}</t>
+  </si>
+  <si>
+    <t>${li.topic53One}</t>
+  </si>
+  <si>
+    <t>${li.topic53Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic53Two}</t>
+  </si>
+  <si>
+    <t>${li.topic54One}</t>
+  </si>
+  <si>
+    <t>${li.topic54Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic54Two}</t>
+  </si>
+  <si>
+    <t>${li.topic55One}</t>
+  </si>
+  <si>
+    <t>${li.topic55Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic55Two}</t>
+  </si>
+  <si>
+    <t>${li.topic56One}</t>
+  </si>
+  <si>
+    <t>${li.topic56Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic56Two}</t>
+  </si>
+  <si>
+    <t>${li.topic57One}</t>
+  </si>
+  <si>
+    <t>${li.topic57Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic57Two}</t>
+  </si>
+  <si>
+    <t>${li.topic58One}</t>
+  </si>
+  <si>
+    <t>${li.topic58Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic58Two}</t>
+  </si>
+  <si>
+    <t>${li.topic59One}</t>
+  </si>
+  <si>
+    <t>${li.topic59Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic59Two}</t>
+  </si>
+  <si>
+    <t>${li.topic60One}</t>
+  </si>
+  <si>
+    <t>${li.topic60Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic60Two}</t>
+  </si>
+  <si>
+    <t>${li.topic61One}</t>
+  </si>
+  <si>
+    <t>${li.topic61Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic61Two}</t>
+  </si>
+  <si>
+    <t>${li.topic62One}</t>
+  </si>
+  <si>
+    <t>${li.topic62Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic63One}</t>
+  </si>
+  <si>
+    <t>${li.topic63Fraction}</t>
+  </si>
+  <si>
+    <t>${li.topic63Two}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
     <t>${li.th22mark}</t>
   </si>
   <si>
-    <t>${li.topic22Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic23One}</t>
-  </si>
-  <si>
-    <t>${li.th23mark}</t>
-  </si>
-  <si>
-    <t>${li.topic24One}</t>
-  </si>
-  <si>
-    <t>${li.th24mark}</t>
-  </si>
-  <si>
-    <t>${li.topic24Two}</t>
-  </si>
-  <si>
-    <t>${li.topic25One}</t>
-  </si>
-  <si>
-    <t>${li.th25mark}</t>
-  </si>
-  <si>
-    <t>${li.topic25Two}</t>
-  </si>
-  <si>
-    <t>${li.topic26One}</t>
-  </si>
-  <si>
-    <t>${li.th26mark}</t>
-  </si>
-  <si>
-    <t>${li.topic26Two}</t>
-  </si>
-  <si>
-    <t>${li.topic27One}</t>
-  </si>
-  <si>
-    <t>${li.th27mark}</t>
-  </si>
-  <si>
-    <t>${li.topic27Two}</t>
-  </si>
-  <si>
-    <t>${li.topic27Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic28One}</t>
-  </si>
-  <si>
-    <t>${li.th28mark}</t>
-  </si>
-  <si>
-    <t>${li.topic28Two}</t>
-  </si>
-  <si>
-    <t>${li.topic29One}</t>
-  </si>
-  <si>
-    <t>${li.th29mark}</t>
-  </si>
-  <si>
-    <t>${li.topic29Two}</t>
-  </si>
-  <si>
-    <t>${li.topic29Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic30One}</t>
+    <t>${li.topic22Two}</t>
+  </si>
+  <si>
+    <t>${li.topic22Three}</t>
+  </si>
+  <si>
+    <t>${li.th22sorce}</t>
   </si>
   <si>
     <t>${li.th30mark}</t>
-  </si>
-  <si>
-    <t>${li.topic30Two}</t>
-  </si>
-  <si>
-    <t>${li.topic30Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic31One}</t>
-  </si>
-  <si>
-    <t>${li.th31mark}</t>
-  </si>
-  <si>
-    <t>${li.topic31Two}</t>
-  </si>
-  <si>
-    <t>${li.topic31Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic32One}</t>
-  </si>
-  <si>
-    <t>${li.th32mark}</t>
-  </si>
-  <si>
-    <t>${li.topic32Two}</t>
-  </si>
-  <si>
-    <t>${li.topic33One}</t>
-  </si>
-  <si>
-    <t>${li.th33mark}</t>
-  </si>
-  <si>
-    <t>${li.topic33Two}</t>
-  </si>
-  <si>
-    <t>${li.topic33Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic34One}</t>
-  </si>
-  <si>
-    <t>${li.th34mark}</t>
-  </si>
-  <si>
-    <t>${li.topic34Two}</t>
-  </si>
-  <si>
-    <t>${li.topic34Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic35One}</t>
-  </si>
-  <si>
-    <t>${li.th35mark}</t>
-  </si>
-  <si>
-    <t>${li.topic35Two}</t>
-  </si>
-  <si>
-    <t>${li.topic35Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic36One}</t>
-  </si>
-  <si>
-    <t>${li.th36mark}</t>
-  </si>
-  <si>
-    <t>${li.topic36Two}</t>
-  </si>
-  <si>
-    <t>${li.topic36Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic37One}</t>
-  </si>
-  <si>
-    <t>${li.th37mark}</t>
-  </si>
-  <si>
-    <t>${li.topic37Two}</t>
-  </si>
-  <si>
-    <t>${li.topic37Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic38One}</t>
-  </si>
-  <si>
-    <t>${li.th38mark}</t>
-  </si>
-  <si>
-    <t>${li.topic39One}</t>
-  </si>
-  <si>
-    <t>${li.th39mark}</t>
-  </si>
-  <si>
-    <t>${li.topic39Two}</t>
-  </si>
-  <si>
-    <t>${li.topic40One}</t>
-  </si>
-  <si>
-    <t>${li.th40mark}</t>
-  </si>
-  <si>
-    <t>${li.topic40Two}</t>
-  </si>
-  <si>
-    <t>${li.topic40Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic41One}</t>
-  </si>
-  <si>
-    <t>${li.th41mark}</t>
-  </si>
-  <si>
-    <t>${li.topic41Two}</t>
-  </si>
-  <si>
-    <t>${li.topic42One}</t>
-  </si>
-  <si>
-    <t>${li.th42mark}</t>
-  </si>
-  <si>
-    <t>${li.topic42Two}</t>
-  </si>
-  <si>
-    <t>${li.topic43One}</t>
-  </si>
-  <si>
-    <t>${li.th43mark}</t>
-  </si>
-  <si>
-    <t>${li.topic43Two}</t>
-  </si>
-  <si>
-    <t>${li.th44mark}</t>
-  </si>
-  <si>
-    <t>}${li.topic44Two}</t>
-  </si>
-  <si>
-    <t>${li.topic45One}</t>
-  </si>
-  <si>
-    <t>${li.th45mark}</t>
-  </si>
-  <si>
-    <t>${li.topic45Two}</t>
-  </si>
-  <si>
-    <t>${li.topic46One}</t>
-  </si>
-  <si>
-    <t>${li.th46mark}</t>
-  </si>
-  <si>
-    <t>${li.topic47One}</t>
-  </si>
-  <si>
-    <t>${li.th47mark}</t>
-  </si>
-  <si>
-    <t>${li.topic47Two}</t>
-  </si>
-  <si>
-    <t>${li.topic48One}</t>
-  </si>
-  <si>
-    <t>${li.th48mark}</t>
-  </si>
-  <si>
-    <t>${li.topic48Two}</t>
-  </si>
-  <si>
-    <t>${li.topic48Three}</t>
-  </si>
-  <si>
-    <t>${li.topic48Fraction}</t>
-  </si>
-  <si>
-    <t>${li.topic49One}</t>
-  </si>
-  <si>
-    <t>${li.th49mark}</t>
-  </si>
-  <si>
-    <t>${li.topic49Two}</t>
-  </si>
-  <si>
-    <t>${li.topic50One}</t>
-  </si>
-  <si>
-    <t>${li.th50mark}</t>
-  </si>
-  <si>
-    <t>${li.topic50Two}</t>
-  </si>
-  <si>
-    <t>${li.topic51One}</t>
-  </si>
-  <si>
-    <t>${li.th51mark}</t>
-  </si>
-  <si>
-    <t>${li.topic51Two}</t>
-  </si>
-  <si>
-    <t>${li.topic52One}</t>
-  </si>
-  <si>
-    <t>${li.th52mark}</t>
-  </si>
-  <si>
-    <t>${li.topic52Two}</t>
-  </si>
-  <si>
-    <t>${li.topic53One}</t>
-  </si>
-  <si>
-    <t>${li.th53mark}</t>
-  </si>
-  <si>
-    <t>${li.topic53Two}</t>
-  </si>
-  <si>
-    <t>${li.topic54One}</t>
-  </si>
-  <si>
-    <t>${li.th54mark}</t>
-  </si>
-  <si>
-    <t>${li.topic54Two}</t>
-  </si>
-  <si>
-    <t>${li.topic55One}</t>
-  </si>
-  <si>
-    <t>${li.th55mark}</t>
-  </si>
-  <si>
-    <t>${li.topic55Two}</t>
-  </si>
-  <si>
-    <t>${li.topic56One}</t>
-  </si>
-  <si>
-    <t>${li.th56mark}</t>
-  </si>
-  <si>
-    <t>${li.topic56Two}</t>
-  </si>
-  <si>
-    <t>${li.topic57One}</t>
-  </si>
-  <si>
-    <t>${li.th57mark}</t>
-  </si>
-  <si>
-    <t>${li.topic57Two}</t>
-  </si>
-  <si>
-    <t>${li.topic58One}</t>
-  </si>
-  <si>
-    <t>${li.th58mark}</t>
-  </si>
-  <si>
-    <t>${li.topic58Two}</t>
-  </si>
-  <si>
-    <t>${li.topic59One}</t>
-  </si>
-  <si>
-    <t>${li.th59mark}</t>
-  </si>
-  <si>
-    <t>${li.topic59Two}</t>
-  </si>
-  <si>
-    <t>${li.topic60One}</t>
-  </si>
-  <si>
-    <t>${li.th60mark}</t>
-  </si>
-  <si>
-    <t>${li.topic60Two}</t>
-  </si>
-  <si>
-    <t>${li.topic61One}</t>
-  </si>
-  <si>
-    <t>${li.th61mark}</t>
-  </si>
-  <si>
-    <t>${li.topic61Two}</t>
-  </si>
-  <si>
-    <t>${li.topic62One}</t>
-  </si>
-  <si>
-    <t>${li.th62mark}</t>
-  </si>
-  <si>
-    <t>${li.topic63One}</t>
-  </si>
-  <si>
-    <t>${li.th63mark}</t>
-  </si>
-  <si>
-    <t>${li.topic63Two}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${li.topic22Two}</t>
-  </si>
-  <si>
-    <t>${li.topic22Three}</t>
-  </si>
-  <si>
-    <t>${li.th22sorce}</t>
   </si>
   <si>
     <t>${li.topic30Three}</t>
@@ -1439,10 +1404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1476,29 +1441,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1511,7 +1472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1519,6 +1480,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,7 +1502,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,55 +1525,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1610,17 +1545,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1639,7 +1604,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,175 +1784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,6 +1826,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1894,8 +1894,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1914,202 +1923,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2133,6 +2098,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2482,10 +2450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:HW4"/>
+  <dimension ref="A1:HX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FB1" workbookViewId="0">
-      <selection activeCell="FO15" sqref="FO15"/>
+    <sheetView tabSelected="1" topLeftCell="GC1" workbookViewId="0">
+      <selection activeCell="GF8" sqref="GF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -2493,7 +2461,10 @@
     <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
     <col min="17" max="17" width="12.1111111111111" customWidth="1"/>
     <col min="29" max="29" width="13.7777777777778" customWidth="1"/>
-    <col min="71" max="72" width="18.6666666666667" customWidth="1"/>
+    <col min="71" max="71" width="18.6666666666667" customWidth="1"/>
+    <col min="72" max="72" width="32.5555555555556" customWidth="1"/>
+    <col min="73" max="73" width="21.3333333333333" customWidth="1"/>
+    <col min="76" max="76" width="31.7777777777778" customWidth="1"/>
     <col min="88" max="88" width="15.3333333333333" customWidth="1"/>
     <col min="89" max="90" width="14.3333333333333" customWidth="1"/>
     <col min="93" max="93" width="15.3333333333333" customWidth="1"/>
@@ -2519,9 +2490,14 @@
     <col min="155" max="155" width="20" customWidth="1"/>
     <col min="158" max="158" width="25" customWidth="1"/>
     <col min="162" max="162" width="17.3333333333333" customWidth="1"/>
+    <col min="184" max="184" width="29.3333333333333" customWidth="1"/>
+    <col min="185" max="185" width="32.1111111111111" customWidth="1"/>
+    <col min="186" max="186" width="27" customWidth="1"/>
+    <col min="187" max="187" width="33.1111111111111" customWidth="1"/>
+    <col min="188" max="188" width="23.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="58" customHeight="1" spans="1:231">
+    <row r="1" s="2" customFormat="1" ht="58" customHeight="1" spans="1:232">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3059,7 @@
       <c r="GE1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GF1" s="9" t="s">
         <v>187</v>
       </c>
       <c r="GG1" s="2" t="s">
@@ -3214,250 +3190,253 @@
       </c>
       <c r="HW1" s="2" t="s">
         <v>230</v>
+      </c>
+      <c r="HX1" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:231">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:232">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="CA3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CB3" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="CC3" s="1" t="s">
         <v>311</v>
@@ -3469,453 +3448,456 @@
         <v>313</v>
       </c>
       <c r="CF3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CK3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="CO3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CS3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="CV3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="DK3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="DR3" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DS3" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DT3" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DU3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="DV3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DW3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DX3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="DZ3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="EG3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DX3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DY3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="EK3" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="EO3" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="ES3" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="ET3" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EU3" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="EI3" s="1" t="s">
+      <c r="EV3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="EW3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="EX3" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="EY3" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="EZ3" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="FA3" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="FB3" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="FC3" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="FD3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="FE3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="FF3" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="FG3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="FH3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="FI3" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="FJ3" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="FK3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="FL3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="FM3" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="FN3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="FO3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="FP3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FQ3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="FB3" s="1" t="s">
+      <c r="FR3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="FC3" s="1" t="s">
+      <c r="FS3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="FD3" s="1" t="s">
+      <c r="FT3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="FE3" s="1" t="s">
+      <c r="FU3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="FF3" s="1" t="s">
+      <c r="FV3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="FG3" s="1" t="s">
+      <c r="FW3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="FX3" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="FH3" s="1" t="s">
+      <c r="FY3" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="FI3" s="1" t="s">
+      <c r="FZ3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="FJ3" s="1" t="s">
+      <c r="GA3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="FK3" s="1" t="s">
+      <c r="GB3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="FL3" s="1" t="s">
+      <c r="GC3" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="FM3" s="1" t="s">
+      <c r="GD3" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="FN3" s="1" t="s">
+      <c r="GE3" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="FO3" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="FP3" s="1" t="s">
+      <c r="GF3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="FQ3" s="1" t="s">
+      <c r="GG3" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="FR3" s="1" t="s">
+      <c r="GH3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="FS3" s="1" t="s">
+      <c r="GI3" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="FT3" s="1" t="s">
+      <c r="GJ3" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="FU3" s="1" t="s">
+      <c r="GK3" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="FV3" s="1" t="s">
+      <c r="GL3" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="FW3" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="FX3" s="1" t="s">
+      <c r="GM3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="FY3" s="1" t="s">
+      <c r="GN3" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="FZ3" s="1" t="s">
+      <c r="GO3" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="GA3" s="1" t="s">
+      <c r="GP3" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="GB3" s="1" t="s">
+      <c r="GQ3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="GC3" s="1" t="s">
+      <c r="GR3" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="GD3" s="1" t="s">
+      <c r="GS3" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="GE3" s="1" t="s">
+      <c r="GT3" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="GF3" s="1" t="s">
+      <c r="GU3" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="GG3" s="1" t="s">
+      <c r="GV3" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="GH3" s="1" t="s">
+      <c r="GW3" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="GI3" s="1" t="s">
+      <c r="GX3" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="GJ3" s="1" t="s">
+      <c r="GY3" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="GK3" s="1" t="s">
+      <c r="GZ3" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="GL3" s="1" t="s">
+      <c r="HA3" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="GM3" s="1" t="s">
+      <c r="HB3" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="GN3" s="1" t="s">
+      <c r="HC3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="GO3" s="1" t="s">
+      <c r="HD3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="GP3" s="1" t="s">
+      <c r="HE3" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="GQ3" s="1" t="s">
+      <c r="HF3" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="GR3" s="1" t="s">
+      <c r="HG3" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="GS3" s="1" t="s">
+      <c r="HH3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="GT3" s="1" t="s">
+      <c r="HI3" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="GU3" s="1" t="s">
+      <c r="HJ3" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="GV3" s="1" t="s">
+      <c r="HK3" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="GW3" s="1" t="s">
+      <c r="HL3" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="GX3" s="1" t="s">
+      <c r="HM3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="GY3" s="1" t="s">
+      <c r="HN3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="GZ3" s="1" t="s">
+      <c r="HO3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="HA3" s="1" t="s">
+      <c r="HP3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="HB3" s="1" t="s">
+      <c r="HQ3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="HC3" s="1" t="s">
+      <c r="HR3" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="HD3" s="1" t="s">
+      <c r="HS3" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="HE3" s="1" t="s">
+      <c r="HT3" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="HF3" s="1" t="s">
+      <c r="HU3" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="HG3" s="1" t="s">
+      <c r="HV3" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="HH3" s="1" t="s">
+      <c r="HW3" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="HI3" s="1" t="s">
+      <c r="HX3" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="HJ3" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="HK3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="HL3" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="HM3" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="HN3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="HO3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="HP3" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="HQ3" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="HR3" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="HS3" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="HT3" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="HU3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="HV3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="HW3" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -3945,42 +3927,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>328</v>
+        <v>447</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>353</v>
+        <v>451</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
